--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Grad 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -179,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,6 +204,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,8 +227,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,7 +1008,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1393,8 +1397,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2564,7 +2568,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2954,18 +2958,21 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
   </cols>
   <sheetData>
@@ -3014,19 +3021,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>275467815.05</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>279301182.1</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3047,19 +3054,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>296085726</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>373401626</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -3077,19 +3084,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>270466689</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>269662438</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>
@@ -3258,6 +3265,7 @@
       <c r="E21" s="1" t="n">
         <v>270581394</v>
       </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -3347,7 +3355,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Grad 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,7 +98,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,13 +120,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -179,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,11 +181,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,10 +194,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,11 +216,11 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -618,15 +607,16 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
   </cols>
   <sheetData>
@@ -655,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -675,19 +665,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>5412.5</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>5958.45</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -708,19 +698,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>6472</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>7432</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -738,19 +728,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>4319</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>5096</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>
@@ -1008,15 +998,16 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
   </cols>
   <sheetData>
@@ -1045,16 +1036,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -1065,19 +1056,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>26906.35</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>21685.7</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1098,19 +1089,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>34126</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>26404</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -1128,19 +1119,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>22399</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>18577</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>
@@ -1398,15 +1389,16 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
   </cols>
   <sheetData>
@@ -1435,16 +1427,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -1455,19 +1447,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>232306.45</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>221833.05</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1488,19 +1480,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>267750</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>283232</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -1518,19 +1510,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>211244</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>207175</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>
@@ -1788,15 +1780,16 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
   </cols>
   <sheetData>
@@ -1825,16 +1818,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -1845,19 +1838,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>1957289.15</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>2074699.9</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1878,19 +1871,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>2025186</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>2679778</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -1908,19 +1901,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>1926455</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>1934058</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>
@@ -2178,15 +2171,16 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
   </cols>
   <sheetData>
@@ -2215,16 +2209,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -2235,19 +2229,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>6184078.55</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>6308944.35</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2268,19 +2262,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>7703022</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>6754677</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -2298,19 +2292,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>3191727</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>5988733</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>
@@ -2568,15 +2562,16 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
   </cols>
   <sheetData>
@@ -2605,16 +2600,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -2625,19 +2620,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>43330569.45</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>35985537.65</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2658,19 +2653,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>71361249</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>62067740</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -2688,19 +2683,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>30799955</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>32887643</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>
@@ -2957,11 +2952,11 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -3265,7 +3260,6 @@
       <c r="E21" s="1" t="n">
         <v>270581394</v>
       </c>
-      <c r="G21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -3355,10 +3349,10 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -3416,19 +3410,19 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
         <v>375280389.65</v>
       </c>
-      <c r="J4" s="0" t="e">
+      <c r="J4" s="1" t="e">
         <f aca="false">AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
         <v>387950963.3</v>
       </c>
-      <c r="L4" s="0" t="e">
+      <c r="L4" s="1" t="e">
         <f aca="false">AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3449,19 +3443,19 @@
       <c r="H5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">MAX(C:C)</f>
         <v>401849698</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
         <v>432715706</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">MAX(F:F)</f>
         <v>0</v>
       </c>
@@ -3479,19 +3473,19 @@
       <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">MIN(C:C)</f>
         <v>365116340</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">MIN(D:D)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
         <v>374455460</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
         <v>0</v>
       </c>

--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TUM\3. Semester\ASP\Projekt\ASP-Peano\Ausarbeitung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267AB4DB-06AE-4373-A9C5-FE4565749359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grad 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Grad 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Grad 3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Grad 4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Grad 5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Grad 6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Grad 7" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Grad 8" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Grad 9" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Grad 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grad 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Grad 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Grad 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Grad 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Grad 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Grad 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Grad 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Grad 9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,75 +43,71 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="20">
   <si>
-    <t xml:space="preserve">ZEIT ( in Nanosekunden)</t>
+    <t>ZEIT ( in Nanosekunden)</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementierung</t>
+    <t>Implementierung</t>
   </si>
   <si>
-    <t xml:space="preserve">Assembly vor Optimierung</t>
+    <t>Assembly vor Optimierung</t>
   </si>
   <si>
-    <t xml:space="preserve">Assembly</t>
+    <t>Assembly</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterativ C</t>
+    <t>Iterativ C</t>
   </si>
   <si>
-    <t xml:space="preserve">Rekursiv</t>
+    <t>Rekursiv</t>
   </si>
   <si>
-    <t xml:space="preserve">Vor Opt</t>
+    <t>Vor Opt</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterativ</t>
+    <t>Iterativ</t>
   </si>
   <si>
-    <t xml:space="preserve">WO?</t>
+    <t>WO?</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchsschnitt</t>
+    <t>Durchsschnitt</t>
   </si>
   <si>
-    <t xml:space="preserve">Auf Thomas PC</t>
+    <t>Auf Thomas PC</t>
   </si>
   <si>
-    <t xml:space="preserve">Max</t>
+    <t>Max</t>
   </si>
   <si>
-    <t xml:space="preserve">Min</t>
+    <t>Min</t>
   </si>
   <si>
-    <t xml:space="preserve">Specs:</t>
+    <t>Specs:</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel© Core™ i7-7700K CPU @ 4.20GHz × 4</t>
+    <t>Intel© Core™ i7-7700K CPU @ 4.20GHz × 4</t>
   </si>
   <si>
-    <t xml:space="preserve">16 GB Ram</t>
+    <t>16 GB Ram</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux Mint 20, 64 Bit</t>
+    <t>Linux Mint 20, 64 Bit</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux Kernel 5.4.0-26-generic</t>
+    <t>Linux Kernel 5.4.0-26-generic</t>
   </si>
   <si>
-    <t xml:space="preserve">Kompiliert mit Option -03</t>
+    <t>Kompiliert mit Option -03</t>
   </si>
   <si>
-    <t xml:space="preserve">Gcc version adden</t>
+    <t>Gcc version adden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,22 +116,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -139,7 +133,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -147,441 +141,701 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="I4">
+        <f>AVERAGE(C:C)</f>
         <v>925</v>
       </c>
-      <c r="J4" s="0" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+      <c r="J4" t="e">
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="K4">
+        <f>AVERAGE(E:E)</f>
         <v>1858.15</v>
       </c>
-      <c r="L4" s="0" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+      <c r="L4" t="e">
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>1025</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>455</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5">
+        <f>MAX(C:C)</f>
         <v>1211</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>MAX(E:E)</f>
         <v>2460</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>842</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>1680</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6">
+        <f>MIN(C:C)</f>
         <v>740</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>MIN(E:E)</f>
         <v>455</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>1078</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>1733</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>1053</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>2460</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>754</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>1872</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>782</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>1691</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>1010</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>2158</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>975</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>2087</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>822</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>1957</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>1121</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>2207</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>1211</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>1708</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>774</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>1881</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>1107</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>1737</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>1052</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>1713</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>1034</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>2220</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>828</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>1652</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>755</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>2413</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>755</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>1678</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>740</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>2062</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>782</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>1799</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -589,63 +843,55 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="12" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -657,322 +903,322 @@
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
         <v>5412.5</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
         <v>5958.45</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>6042</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>5923</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>6472</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>7432</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>6040</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>5096</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>4319</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>5096</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>5207</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>5751</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>4710</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>5847</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>5941</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>6375</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>4579</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>7242</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>4838</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>5488</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>6004</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>5320</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>4797</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>6160</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>5278</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>5896</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>5193</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>5382</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>4319</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>5154</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>6446</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>7432</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>6269</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>5909</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>6148</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>5110</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>4496</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>7151</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>5753</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>6208</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>6472</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>5621</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>4786</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>5999</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>4932</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>6105</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -980,10 +1226,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -991,52 +1236,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="12" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1048,322 +1290,322 @@
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
         <v>26906.35</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
         <v>21685.7</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>23246</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>19314</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>34126</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>26404</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>23860</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>23459</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>22399</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>18577</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>22399</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>19184</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>33207</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>24137</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>22835</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>18794</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>32542</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>19659</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>32308</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>24683</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>23001</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>18577</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>22901</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>25679</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>30736</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>24954</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>34126</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>19575</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>23261</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>26325</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>32492</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>20154</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>23412</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>20054</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>32939</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>26404</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>23479</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>26268</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>22470</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>18616</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>23098</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>19103</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>23691</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>19388</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>32124</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>19387</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1371,10 +1613,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1382,52 +1623,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="12" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1439,322 +1678,322 @@
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
         <v>232306.45</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
         <v>221833.05</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>253653</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>283232</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>267750</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>283232</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>211409</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>210963</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>211244</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>207175</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>239412</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>233220</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>242185</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>252404</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>254063</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>228405</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>267750</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>218186</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>213434</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>208647</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>251425</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>209981</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>230739</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>262263</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>236259</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>219168</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>225461</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>215979</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>237666</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>208900</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>212087</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>215822</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>211244</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>209179</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>213523</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>208616</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>232889</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>209045</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>222910</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>207810</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>222010</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>207876</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>234717</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>207175</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>233293</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>219790</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1762,10 +2001,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1773,52 +2011,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="12" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1830,322 +2065,322 @@
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
         <v>1957289.15</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
         <v>2074699.9</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>1926455</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>1940794</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>2025186</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>2679778</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>1953605</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>1934058</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>1926455</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>1934058</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>1954987</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>1947387</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>1930269</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>2679778</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>1972142</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>2022932</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>1950789</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>1998672</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>1974214</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>2405677</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>1940060</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>2036981</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>1974240</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>2519385</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>1935903</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>2011890</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>2025186</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>2002655</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>1944746</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>1985194</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>1972458</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>2002890</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>1950093</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>1972992</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>1940043</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>2021031</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>1926540</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>2106272</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>1992585</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>2048370</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>1954889</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>1985439</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>1948631</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>1937345</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>1977948</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>1934256</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2153,10 +2388,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2164,52 +2398,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="12" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2221,322 +2452,322 @@
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>6184078.55</v>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>6184078.5499999998</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>6308944.35</v>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>6308944.3499999996</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>6214245</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>6754677</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>7703022</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>6754677</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>6759886</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>6380460</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>3191727</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>5988733</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>6185513</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>5988733</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>6387585</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>6180602</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>6199649</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>6236898</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>6137949</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>6259267</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>3191727</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>6301040</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>6253939</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>6292338</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>6275126</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>6349357</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>6035172</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>6264303</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>6141028</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>6272890</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>6169942</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>6220441</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>7703022</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>6388562</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>6226240</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>6348208</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>6718558</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>6368356</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>6107086</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>6427619</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>6213998</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>6336068</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>6127450</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>6286999</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>6397618</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>6318737</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>6235838</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>6203332</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2544,10 +2775,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2555,52 +2785,54 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2612,322 +2844,322 @@
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>43330569.45</v>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>43330569.450000003</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>35985537.65</v>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>35985537.649999999</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>33807491</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>33229918</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>71361249</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>62067740</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>70177222</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>33177050</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>30799955</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>32887643</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>33988447</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>33568074</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>65852201</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>33492279</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>33426309</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>62067740</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>57048393</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>33215885</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>33202451</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>33535067</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>56014357</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>33450969</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>71361249</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>38256747</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>33727970</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>33472639</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>36114019</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>39959368</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>35242807</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>33397584</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>33765455</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>34142481</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>33939717</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>33332082</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>33761669</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>36272708</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>33281559</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>36407276</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>35093208</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>35613748</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>39727808</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>32887643</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>66279102</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>36229498</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>30799955</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>34001997</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2935,10 +3167,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2946,384 +3177,381 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>275467815.05</v>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>275467815.05000001</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>279301182.1</v>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>279301182.10000002</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>277740155</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>271058826</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>296085726</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>373401626</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>271126099</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>270566933</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>270466689</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>269662438</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>271277069</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>270697708</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>271545020</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>270531814</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>270466689</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>270650237</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>271325969</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>270020571</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>296085726</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>271021405</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>296062742</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>271080068</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>273113680</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>271327458</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>270554818</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>270971559</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>276914890</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>273434759</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>271829750</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>271027108</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>271642956</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>373401626</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>278048550</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>271231586</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>271814228</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>270950768</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>271419421</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>269662438</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>271997391</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>270581394</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>271794024</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>299293397</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>275224297</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>308476247</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>279372827</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>270037740</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3331,10 +3559,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3342,382 +3569,380 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>375280389.65</v>
+      <c r="I4" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>375280389.64999998</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f aca="false">AVERAGE(D:D)</f>
+        <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>387950963.3</v>
+      <c r="K4" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>387950963.30000001</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f aca="false">AVERAGE(F:F)</f>
+        <f>AVERAGE(F:F)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>374294983</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>385752593</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="I5" s="1">
+        <f>MAX(C:C)</f>
         <v>401849698</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="J5" s="1">
+        <f>MAX(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>MAX(E:E)</f>
         <v>432715706</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="L5" s="1">
+        <f>MAX(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>369115781</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>388025625</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="I6" s="1">
+        <f>MIN(C:C)</f>
         <v>365116340</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="J6" s="1">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>MIN(E:E)</f>
         <v>374455460</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="L6" s="1">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>365361590</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>388150891</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>369738954</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>377716899</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>384714342</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>389343389</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>379622389</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>379189718</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>370558451</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>388091202</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>370085855</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>390995075</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>368458274</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>387888325</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>366311159</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>374455460</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>394321048</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>383885207</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>365116340</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>381190713</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>367981460</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>418330715</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>367823709</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>386809189</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>367662805</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>432715706</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>393176757</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>379043229</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>369549230</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>378969327</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>401849698</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>381237004</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>377499437</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>384546044</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>382365531</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>382682955</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3725,10 +3950,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TUM\3. Semester\ASP\Projekt\ASP-Peano\Ausarbeitung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CBBAFE-F55A-414E-83EB-F9EAB93B78E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grad 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Grad 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Grad 3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Grad 4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Grad 5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Grad 6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Grad 7" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Grad 8" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Grad 9" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Grad 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grad 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Grad 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Grad 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Grad 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Grad 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Grad 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Grad 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Grad 9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,80 +43,78 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="21">
   <si>
-    <t xml:space="preserve">ZEIT ( in Nanosekunden)</t>
+    <t>ZEIT ( in Nanosekunden)</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementierung</t>
+    <t>Implementierung</t>
   </si>
   <si>
-    <t xml:space="preserve">Assembly vor Optimierung</t>
+    <t>Assembly vor Optimierung</t>
   </si>
   <si>
-    <t xml:space="preserve">Assembly</t>
+    <t>Assembly</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterativ In-Place C</t>
+    <t>Iterativ In-Place C</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterativ Out-Of Place C</t>
+    <t>Iterativ Out-Of Place C</t>
   </si>
   <si>
-    <t xml:space="preserve">Rekursiv</t>
+    <t>Rekursiv</t>
   </si>
   <si>
-    <t xml:space="preserve">Vor Opt</t>
+    <t>Vor Opt</t>
   </si>
   <si>
-    <t xml:space="preserve">In-Place</t>
+    <t>In-Place</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-Of-Place</t>
+    <t>Out-Of-Place</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchsschnitt</t>
+    <t>Durchsschnitt</t>
   </si>
   <si>
-    <t xml:space="preserve">Max</t>
+    <t>Max</t>
   </si>
   <si>
-    <t xml:space="preserve">Min</t>
+    <t>Min</t>
   </si>
   <si>
-    <t xml:space="preserve">Specs:</t>
+    <t>Specs:</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel© Core™ i7-7700K CPU @ 4.20GHz × 4</t>
+    <t>Intel© Core™ i7-7700K CPU @ 4.20GHz × 4</t>
   </si>
   <si>
-    <t xml:space="preserve">16 GB Ram</t>
+    <t>16 GB Ram</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux Mint 20, 64 Bit</t>
+    <t>Linux Mint 20, 64 Bit</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux Kernel 5.4.0-26-generic</t>
+    <t>Linux Kernel 5.4.0-26-generic</t>
   </si>
   <si>
-    <t xml:space="preserve">Kompiliert mit Option -03</t>
+    <t>Kompiliert mit Option -03</t>
   </si>
   <si>
-    <t xml:space="preserve">Gcc version adden</t>
+    <t>Gcc version adden</t>
   </si>
   <si>
-    <t xml:space="preserve">ZEIT ( in Sekunden)</t>
+    <t>ZEIT ( in Sekunden)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,22 +123,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -144,7 +140,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -152,113 +148,364 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -271,7 +518,7 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -281,462 +528,462 @@
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
         <v>925</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
+      <c r="L4" s="2">
+        <f>AVERAGE(D:D)</f>
         <v>861.85</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="M4" s="2">
+        <f>AVERAGE(E:E)</f>
         <v>1930.65</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
-        <v>2358.45</v>
-      </c>
-      <c r="O4" s="1" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+      <c r="N4" s="2">
+        <f>AVERAGE(F:F)</f>
+        <v>2358.4499999999998</v>
+      </c>
+      <c r="O4" s="2" t="e">
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>1025</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>920</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>1905</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2">
         <v>2222</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>1211</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
+      <c r="L5" s="2">
+        <f>MAX(D:D)</f>
         <v>1082</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="M5" s="2">
+        <f>MAX(E:E)</f>
         <v>2460</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
+      <c r="N5" s="2">
+        <f>MAX(F:F)</f>
         <v>2871</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="O5" s="2">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>842</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>813</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>1680</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2">
         <v>2716</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>740</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
+      <c r="L6" s="2">
+        <f>MIN(D:D)</f>
         <v>184</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="M6" s="2">
+        <f>MIN(E:E)</f>
         <v>1652</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="N6" s="2">
+        <f>MIN(F:F)</f>
         <v>1932</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="O6" s="2">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>1078</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>807</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>1733</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2">
         <v>2150</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>1053</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2">
         <v>829</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2">
         <v>2460</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2">
         <v>2246</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>754</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2">
         <v>1065</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2">
         <v>1872</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2">
         <v>2492</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>782</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2">
         <v>936</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2">
         <v>1691</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2">
         <v>2095</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>1010</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2">
         <v>822</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2">
         <v>2158</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2">
         <v>2871</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>975</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2">
         <v>834</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2">
         <v>2087</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2">
         <v>2662</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>822</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2">
         <v>184</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2">
         <v>1957</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2">
         <v>2082</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>1121</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2">
         <v>877</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2">
         <v>2207</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2">
         <v>2095</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>1211</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2">
         <v>1082</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2">
         <v>1708</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2">
         <v>2297</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>774</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2">
         <v>958</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2">
         <v>1881</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2">
         <v>1961</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>1107</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2">
         <v>882</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2">
         <v>1737</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2">
         <v>2870</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>1052</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2">
         <v>858</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2">
         <v>1713</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2">
         <v>2570</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>1034</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2">
         <v>836</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2">
         <v>2220</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2">
         <v>2167</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>828</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2">
         <v>826</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2">
         <v>1652</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2">
         <v>2245</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>755</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2">
         <v>887</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2">
         <v>2413</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2">
         <v>2497</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>755</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2">
         <v>929</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2">
         <v>1678</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2">
         <v>2588</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>740</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2">
         <v>970</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2">
         <v>2062</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2">
         <v>2411</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>782</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2">
         <v>922</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2">
         <v>1799</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2">
         <v>1932</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="27" spans="2:6" ht="20.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -744,47 +991,39 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="13" width="10.5703125" style="2"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -797,473 +1036,473 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="0"/>
+      <c r="I3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
         <v>5412.5</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
+      <c r="L4" s="2">
+        <f>AVERAGE(D:D)</f>
         <v>4562.95</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="M4" s="2">
+        <f>AVERAGE(E:E)</f>
         <v>5958.45</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
+      <c r="N4" s="2">
+        <f>AVERAGE(F:F)</f>
         <v>7131.25</v>
       </c>
-      <c r="O4" s="1" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+      <c r="O4" s="2" t="e">
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>6042</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>4197</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>5923</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>6776</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>6472</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
+      <c r="L5" s="2">
+        <f>MAX(D:D)</f>
         <v>5524</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="M5" s="2">
+        <f>MAX(E:E)</f>
         <v>7432</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
+      <c r="N5" s="2">
+        <f>MAX(F:F)</f>
         <v>8595</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="O5" s="2">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>6040</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>4678</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>5096</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>6829</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>4319</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
+      <c r="L6" s="2">
+        <f>MIN(D:D)</f>
         <v>4007</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="M6" s="2">
+        <f>MIN(E:E)</f>
         <v>5096</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="N6" s="2">
+        <f>MIN(F:F)</f>
         <v>6203</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="O6" s="2">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>5207</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>5388</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>5751</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>8532</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>4710</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>5524</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2">
         <v>5847</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>6550</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>5941</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>4302</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2">
         <v>6375</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>6484</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>4579</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>4672</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2">
         <v>7242</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>7146</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>4838</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>4247</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2">
         <v>5488</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>8279</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>6004</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>5358</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2">
         <v>5320</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>8458</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>4797</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>5101</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2">
         <v>6160</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>6687</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>5278</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>4053</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2">
         <v>5896</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>8136</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>5193</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>4046</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2">
         <v>5382</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>6929</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>4319</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>4330</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2">
         <v>5154</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>8595</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>6446</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>4301</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2">
         <v>7432</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>6493</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>6269</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>5310</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2">
         <v>5909</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>6891</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>6148</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>4196</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2">
         <v>5110</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>6669</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>4496</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>4007</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2">
         <v>7151</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>6269</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>5753</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>4226</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2">
         <v>6208</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>6448</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>6472</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>4329</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2">
         <v>5621</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>6203</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>4786</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>4986</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2">
         <v>5999</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>6655</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>4932</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>4008</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2">
         <v>6105</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>7596</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1271,10 +1510,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1282,36 +1520,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="2"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="13" width="10.5703125" style="2"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1558,7 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1334,462 +1568,462 @@
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">AVERAGE(B:B)</f>
+      <c r="J4" s="2">
+        <f>AVERAGE(B:B)</f>
         <v>10.5</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
         <v>26906.35</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
+      <c r="L4" s="2">
+        <f>AVERAGE(D:D)</f>
         <v>24362.05</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="M4" s="2">
+        <f>AVERAGE(E:E)</f>
         <v>21685.7</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
+      <c r="N4" s="2">
+        <f>AVERAGE(F:F)</f>
         <v>29450.1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>23246</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>21760</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>19314</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2">
         <v>24668</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">MAX(B:B)</f>
+      <c r="J5" s="2">
+        <f>MAX(B:B)</f>
         <v>20</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>34126</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
+      <c r="L5" s="2">
+        <f>MAX(D:D)</f>
         <v>29460</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="M5" s="2">
+        <f>MAX(E:E)</f>
         <v>26404</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
+      <c r="N5" s="2">
+        <f>MAX(F:F)</f>
         <v>35794</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>23860</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>21854</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>23459</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2">
         <v>30940</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">MIN(B:B)</f>
+      <c r="J6" s="2">
+        <f>MIN(B:B)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>22399</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
+      <c r="L6" s="2">
+        <f>MIN(D:D)</f>
         <v>20897</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="M6" s="2">
+        <f>MIN(E:E)</f>
         <v>18577</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="N6" s="2">
+        <f>MIN(F:F)</f>
         <v>24668</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>22399</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>21154</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>19184</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2">
         <v>31697</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>33207</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2">
         <v>21265</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2">
         <v>24137</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2">
         <v>26608</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>22835</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2">
         <v>27892</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2">
         <v>18794</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2">
         <v>35212</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>32542</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2">
         <v>28969</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2">
         <v>19659</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2">
         <v>33609</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>32308</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2">
         <v>26652</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2">
         <v>24683</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2">
         <v>25171</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>23001</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2">
         <v>22910</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2">
         <v>18577</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2">
         <v>25988</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>22901</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2">
         <v>22367</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2">
         <v>25679</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2">
         <v>25329</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>30736</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2">
         <v>21539</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2">
         <v>24954</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2">
         <v>24753</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>34126</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2">
         <v>29460</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2">
         <v>19575</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2">
         <v>35794</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>23261</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2">
         <v>26341</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2">
         <v>26325</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2">
         <v>35494</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>32492</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2">
         <v>26323</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2">
         <v>20154</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2">
         <v>33103</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>23412</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2">
         <v>21136</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2">
         <v>20054</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2">
         <v>25716</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>32939</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2">
         <v>21239</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2">
         <v>26404</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2">
         <v>26229</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>23479</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2">
         <v>28255</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2">
         <v>26268</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2">
         <v>27817</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>22470</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2">
         <v>27967</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2">
         <v>18616</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2">
         <v>33425</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>23098</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2">
         <v>27362</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2">
         <v>19103</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2">
         <v>34593</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>23691</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2">
         <v>21899</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2">
         <v>19388</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2">
         <v>27283</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>32124</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2">
         <v>20897</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2">
         <v>19387</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2">
         <v>25573</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1797,10 +2031,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1808,38 +2041,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="2"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="13" width="10.5703125" style="2"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1852,473 +2081,473 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="0"/>
+      <c r="I3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
         <v>232306.45</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
+      <c r="L4" s="2">
+        <f>AVERAGE(D:D)</f>
         <v>213213.25</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="M4" s="2">
+        <f>AVERAGE(E:E)</f>
         <v>221833.05</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
+      <c r="N4" s="2">
+        <f>AVERAGE(F:F)</f>
         <v>252268.05</v>
       </c>
-      <c r="O4" s="1" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+      <c r="O4" s="2" t="e">
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>253653</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>202296</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>283232</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2">
         <v>250027</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>267750</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
+      <c r="L5" s="2">
+        <f>MAX(D:D)</f>
         <v>243869</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="M5" s="2">
+        <f>MAX(E:E)</f>
         <v>283232</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
+      <c r="N5" s="2">
+        <f>MAX(F:F)</f>
         <v>287083</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="O5" s="2">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>211409</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>209003</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>210963</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2">
         <v>250285</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>211244</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
+      <c r="L6" s="2">
+        <f>MIN(D:D)</f>
         <v>200012</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="M6" s="2">
+        <f>MIN(E:E)</f>
         <v>207175</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="N6" s="2">
+        <f>MIN(F:F)</f>
         <v>234029</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="O6" s="2">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>239412</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>221849</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>233220</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2">
         <v>255294</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>242185</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2">
         <v>200713</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2">
         <v>252404</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2">
         <v>256800</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>254063</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2">
         <v>236468</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2">
         <v>228405</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2">
         <v>287083</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>267750</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2">
         <v>200854</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2">
         <v>218186</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2">
         <v>243886</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>213434</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2">
         <v>202047</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2">
         <v>208647</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2">
         <v>234029</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>251425</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2">
         <v>221590</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2">
         <v>209981</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2">
         <v>247170</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>230739</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2">
         <v>228527</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2">
         <v>262263</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2">
         <v>270945</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>236259</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2">
         <v>217818</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2">
         <v>219168</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2">
         <v>244015</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>225461</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2">
         <v>202886</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2">
         <v>215979</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2">
         <v>234704</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>237666</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2">
         <v>202632</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2">
         <v>208900</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2">
         <v>275874</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>212087</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2">
         <v>243869</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2">
         <v>215822</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2">
         <v>242003</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>211244</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2">
         <v>217258</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2">
         <v>209179</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2">
         <v>252112</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>213523</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2">
         <v>202331</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2">
         <v>208616</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2">
         <v>244208</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>232889</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2">
         <v>210864</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2">
         <v>209045</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2">
         <v>251636</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>222910</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2">
         <v>224717</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2">
         <v>207810</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2">
         <v>255450</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>222010</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2">
         <v>200012</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2">
         <v>207876</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2">
         <v>239294</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>234717</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2">
         <v>207603</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2">
         <v>207175</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2">
         <v>269912</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>233293</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2">
         <v>210928</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2">
         <v>219790</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2">
         <v>240634</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2326,10 +2555,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2337,37 +2565,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="2"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="13" width="10.5703125" style="2"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2380,473 +2604,473 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="0"/>
+      <c r="I3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
         <v>1957289.15</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
+      <c r="L4" s="2">
+        <f>AVERAGE(D:D)</f>
         <v>1829848.5</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
+      <c r="M4" s="2">
+        <f>AVERAGE(E:E)</f>
         <v>2074699.9</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
-        <v>2107929.8</v>
-      </c>
-      <c r="O4" s="1" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+      <c r="N4" s="2">
+        <f>AVERAGE(F:F)</f>
+        <v>2107929.7999999998</v>
+      </c>
+      <c r="O4" s="2" t="e">
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>1926455</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>1835741</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>1940794</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2">
         <v>2092754</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>2025186</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
+      <c r="L5" s="2">
+        <f>MAX(D:D)</f>
         <v>1878055</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="M5" s="2">
+        <f>MAX(E:E)</f>
         <v>2679778</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
+      <c r="N5" s="2">
+        <f>MAX(F:F)</f>
         <v>2202317</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="O5" s="2">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>1953605</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>1731226</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>1934058</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2">
         <v>2075535</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>1926455</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
+      <c r="L6" s="2">
+        <f>MIN(D:D)</f>
         <v>1731226</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="M6" s="2">
+        <f>MIN(E:E)</f>
         <v>1934058</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="N6" s="2">
+        <f>MIN(F:F)</f>
         <v>2073577</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="O6" s="2">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>1954987</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>1845875</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>1947387</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2">
         <v>2075063</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>1930269</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2">
         <v>1878055</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2">
         <v>2679778</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2">
         <v>2177992</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>1972142</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2">
         <v>1824269</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2">
         <v>2022932</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2">
         <v>2100669</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>1950789</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2">
         <v>1793288</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2">
         <v>1998672</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2">
         <v>2103384</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>1974214</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2">
         <v>1815194</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2">
         <v>2405677</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2">
         <v>2146743</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>1940060</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2">
         <v>1809885</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2">
         <v>2036981</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2">
         <v>2107300</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>1974240</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2">
         <v>1822196</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2">
         <v>2519385</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2">
         <v>2094252</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>1935903</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2">
         <v>1800718</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2">
         <v>2011890</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2">
         <v>2115616</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>2025186</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2">
         <v>1838197</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2">
         <v>2002655</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2">
         <v>2099397</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>1944746</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2">
         <v>1801416</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2">
         <v>1985194</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2">
         <v>2073577</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>1972458</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2">
         <v>1874370</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2">
         <v>2002890</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2">
         <v>2081976</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>1950093</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2">
         <v>1843414</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2">
         <v>1972992</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2">
         <v>2085364</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>1940043</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2">
         <v>1826092</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2">
         <v>2021031</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2">
         <v>2098251</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>1926540</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2">
         <v>1854093</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2">
         <v>2106272</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2">
         <v>2083267</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>1992585</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2">
         <v>1849446</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2">
         <v>2048370</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2">
         <v>2089816</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>1954889</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2">
         <v>1861963</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2">
         <v>1985439</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2">
         <v>2089920</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>1948631</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2">
         <v>1826310</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2">
         <v>1937345</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2">
         <v>2165403</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>1977948</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2">
         <v>1865222</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2">
         <v>1934256</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2">
         <v>2202317</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2854,10 +3078,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2865,37 +3088,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="2"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="13" width="10.5703125" style="2"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2908,473 +3127,473 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="0"/>
+      <c r="I3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>6184078.55</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
-        <v>5946496.4</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>6308944.35</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
-        <v>8496765.85</v>
-      </c>
-      <c r="O4" s="1" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
+        <v>6184078.5499999998</v>
+      </c>
+      <c r="L4" s="2">
+        <f>AVERAGE(D:D)</f>
+        <v>5946496.4000000004</v>
+      </c>
+      <c r="M4" s="2">
+        <f>AVERAGE(E:E)</f>
+        <v>6308944.3499999996</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE(F:F)</f>
+        <v>8496765.8499999996</v>
+      </c>
+      <c r="O4" s="2" t="e">
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>6214245</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>6275688</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>6754677</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2">
         <v>6710073</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>7703022</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
+      <c r="L5" s="2">
+        <f>MAX(D:D)</f>
         <v>7903824</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="M5" s="2">
+        <f>MAX(E:E)</f>
         <v>6754677</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
+      <c r="N5" s="2">
+        <f>MAX(F:F)</f>
         <v>19062945</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="O5" s="2">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>6759886</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>7903824</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>6380460</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2">
         <v>7622231</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>3191727</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
+      <c r="L6" s="2">
+        <f>MIN(D:D)</f>
         <v>4509792</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="M6" s="2">
+        <f>MIN(E:E)</f>
         <v>5988733</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="N6" s="2">
+        <f>MIN(F:F)</f>
         <v>5878680</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="O6" s="2">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>6185513</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>5616474</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>5988733</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2">
         <v>6705826</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>6387585</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2">
         <v>6362389</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2">
         <v>6180602</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2">
         <v>6353040</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>6199649</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2">
         <v>5948637</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2">
         <v>6236898</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2">
         <v>6734549</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>6137949</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2">
         <v>5580845</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2">
         <v>6259267</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2">
         <v>6362976</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>3191727</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2">
         <v>5562277</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2">
         <v>6301040</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2">
         <v>5942171</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>6253939</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2">
         <v>6328064</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2">
         <v>6292338</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2">
         <v>6819419</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>6275126</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2">
         <v>5559022</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2">
         <v>6349357</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2">
         <v>5878680</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>6035172</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2">
         <v>6412408</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2">
         <v>6264303</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2">
         <v>7602068</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>6141028</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2">
         <v>6389296</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2">
         <v>6272890</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2">
         <v>6157660</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>6169942</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2">
         <v>5621663</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2">
         <v>6220441</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2">
         <v>6655889</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>7703022</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2">
         <v>5614984</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2">
         <v>6388562</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2">
         <v>6178571</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>6226240</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2">
         <v>5599207</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2">
         <v>6348208</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2">
         <v>18769002</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>6718558</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2">
         <v>5762536</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2">
         <v>6368356</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2">
         <v>6825300</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>6107086</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2">
         <v>6477209</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2">
         <v>6427619</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2">
         <v>6829694</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>6213998</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2">
         <v>4509792</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2">
         <v>6336068</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2">
         <v>6935972</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>6127450</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2">
         <v>6420821</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2">
         <v>6286999</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2">
         <v>19062945</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>6397618</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2">
         <v>6291762</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2">
         <v>6318737</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2">
         <v>19051437</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>6235838</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2">
         <v>4693030</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2">
         <v>6203332</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2">
         <v>6737814</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3382,10 +3601,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3393,42 +3611,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2"/>
+    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2"/>
+    <col min="11" max="11" width="11.5703125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3441,473 +3655,473 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="0"/>
+      <c r="I3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>43330569.45</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
-        <v>32085487.35</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>35985537.65</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
-        <v>42620818.3</v>
-      </c>
-      <c r="O4" s="1" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
+        <v>43330569.450000003</v>
+      </c>
+      <c r="L4" s="2">
+        <f>AVERAGE(D:D)</f>
+        <v>32085487.350000001</v>
+      </c>
+      <c r="M4" s="2">
+        <f>AVERAGE(E:E)</f>
+        <v>35985537.649999999</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE(F:F)</f>
+        <v>42620818.299999997</v>
+      </c>
+      <c r="O4" s="2" t="e">
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>33807491</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>33454372</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>33229918</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2">
         <v>34642067</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>71361249</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">MAX(D:D)</f>
+      <c r="L5" s="2">
+        <f>MAX(D:D)</f>
         <v>39294100</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">MAX(E:E)</f>
+      <c r="M5" s="2">
+        <f>MAX(E:E)</f>
         <v>62067740</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <f aca="false">MAX(F:F)</f>
+      <c r="N5" s="2">
+        <f>MAX(F:F)</f>
         <v>72907838</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="O5" s="2">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>70177222</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>31305287</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>33177050</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2">
         <v>35123881</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>30799955</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">MIN(D:D)</f>
+      <c r="L6" s="2">
+        <f>MIN(D:D)</f>
         <v>30765543</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="M6" s="2">
+        <f>MIN(E:E)</f>
         <v>32887643</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="N6" s="2">
+        <f>MIN(F:F)</f>
         <v>34642067</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="O6" s="2">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>33988447</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>30788291</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>33568074</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2">
         <v>38026742</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>65852201</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2">
         <v>31321469</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2">
         <v>33492279</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2">
         <v>35647228</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>33426309</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2">
         <v>33321407</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2">
         <v>62067740</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2">
         <v>35860355</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>57048393</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2">
         <v>31275164</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2">
         <v>33215885</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2">
         <v>37489087</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>33202451</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2">
         <v>31591867</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2">
         <v>33535067</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2">
         <v>35905037</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>56014357</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2">
         <v>31073321</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2">
         <v>33450969</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2">
         <v>35239114</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>71361249</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2">
         <v>30765543</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2">
         <v>38256747</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2">
         <v>38328041</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>33727970</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2">
         <v>33600394</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2">
         <v>33472639</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2">
         <v>34957051</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>36114019</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2">
         <v>31230899</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2">
         <v>39959368</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2">
         <v>35036968</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>35242807</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2">
         <v>39294100</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2">
         <v>33397584</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2">
         <v>34880967</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>33765455</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2">
         <v>31598268</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2">
         <v>34142481</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2">
         <v>35059501</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>33939717</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2">
         <v>30915355</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2">
         <v>33332082</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2">
         <v>72907838</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>33761669</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2">
         <v>31500790</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2">
         <v>36272708</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2">
         <v>72690589</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>33281559</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2">
         <v>30788743</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2">
         <v>36407276</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2">
         <v>35300682</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>35093208</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2">
         <v>30817093</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2">
         <v>35613748</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2">
         <v>36934541</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>39727808</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2">
         <v>31525949</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2">
         <v>32887643</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2">
         <v>60029118</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>66279102</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2">
         <v>30809875</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2">
         <v>36229498</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2">
         <v>71533238</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>30799955</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2">
         <v>34731560</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2">
         <v>34001997</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2">
         <v>36824321</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3915,10 +4129,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3926,43 +4139,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="19.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="8.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="11.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="10.57"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="5"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="6"/>
+    <col min="14" max="14" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3999,452 +4209,451 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>275467815.05</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
-        <v>0.27688165</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>0.27677955</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
-        <v>0.3033327</v>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
+        <v>275467815.05000001</v>
+      </c>
+      <c r="L4" s="6">
+        <f>AVERAGE(D:D)</f>
+        <v>0.27688165000000003</v>
+      </c>
+      <c r="M4" s="6">
+        <f>AVERAGE(E:E)</f>
+        <v>0.27677954999999999</v>
+      </c>
+      <c r="N4" s="6">
+        <f>AVERAGE(F:F)</f>
+        <v>0.30333269999999996</v>
       </c>
       <c r="O4" s="6" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>277740155</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>0.271816</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>0.268809</v>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="E5" s="5">
+        <v>0.26880900000000002</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.294929</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>296085726</v>
       </c>
-      <c r="L5" s="6" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>0.306034</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <f aca="false">MAX(E:E)</f>
-        <v>0.311681</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>0.33501</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="L5" s="6">
+        <f>MAX(D:D)</f>
+        <v>0.30603399999999997</v>
+      </c>
+      <c r="M5" s="6">
+        <f>MAX(E:E)</f>
+        <v>0.31168099999999999</v>
+      </c>
+      <c r="N5" s="6">
+        <f>MAX(F:F)</f>
+        <v>0.33500999999999997</v>
+      </c>
+      <c r="O5" s="6">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>271126099</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>0.273056</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>0.269647</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0.297361</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="0" t="s">
+      <c r="D6" s="5">
+        <v>0.27305600000000002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.26964700000000003</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.29736099999999999</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>270466689</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>0.270825</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <f aca="false">MIN(E:E)</f>
-        <v>0.268415</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <f aca="false">MIN(F:F)</f>
+      <c r="L6" s="6">
+        <f>MIN(D:D)</f>
+        <v>0.27082499999999998</v>
+      </c>
+      <c r="M6" s="6">
+        <f>MIN(E:E)</f>
+        <v>0.26841500000000001</v>
+      </c>
+      <c r="N6" s="6">
+        <f>MIN(F:F)</f>
         <v>0.294929</v>
       </c>
-      <c r="O6" s="6" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="O6" s="6">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>271277069</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>0.274484</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.268415</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.33501</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="D7" s="5">
+        <v>0.27448400000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.26841500000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.33500999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>271545020</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>0.27392</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>0.27494</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="E8" s="5">
+        <v>0.27494000000000002</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.295684</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>270466689</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.270825</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.269998</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0.333502</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="D9" s="5">
+        <v>0.27082499999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.26999800000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.33350200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>271325969</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>0.272072</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.302354</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.296944</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="D10" s="5">
+        <v>0.27207199999999998</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.30235400000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.29694399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>296085726</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>0.277419</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.268693</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0.295697</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="D11" s="5">
+        <v>0.27741900000000003</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.26869300000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.29569699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>296062742</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>0.273794</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0.275904</v>
-      </c>
-      <c r="F12" s="5" t="n">
+      <c r="D12" s="5">
+        <v>0.27379399999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.27590399999999998</v>
+      </c>
+      <c r="F12" s="5">
         <v>0.295711</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>273113680</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.279541</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.274102</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.29649</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="D13" s="5">
+        <v>0.27954099999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.27410200000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.29648999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>270554818</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.29199</v>
-      </c>
-      <c r="E14" s="5" t="n">
+      <c r="D14" s="5">
+        <v>0.29199000000000003</v>
+      </c>
+      <c r="E14" s="5">
         <v>0.275449</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>0.295945</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="F14" s="5">
+        <v>0.29594500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>276914890</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>0.272429</v>
-      </c>
-      <c r="E15" s="5" t="n">
+      <c r="D15" s="5">
+        <v>0.27242899999999998</v>
+      </c>
+      <c r="E15" s="5">
         <v>0.297122</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>0.295874</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="F15" s="5">
+        <v>0.29587400000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>271829750</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>0.271724</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.270502</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.301554</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="D16" s="5">
+        <v>0.27172400000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.27050200000000002</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.30155399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>271642956</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>0.27418</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>0.269407</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>0.296842</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="D17" s="5">
+        <v>0.27417999999999998</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.26940700000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.29684199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>278048550</v>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>0.306034</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.269407</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>0.295965</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="D18" s="5">
+        <v>0.30603399999999997</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.26940700000000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.29596499999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>271814228</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>0.272953</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>0.311681</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0.297057</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="E19" s="5">
+        <v>0.31168099999999999</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.29705700000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>271419421</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.271855</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.272613</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.296034</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="D20" s="5">
+        <v>0.27185500000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.27261299999999999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.29603400000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>271997391</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <v>0.272605</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0.277948</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>0.296216</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="D21" s="5">
+        <v>0.27260499999999999</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.27794799999999997</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.29621599999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>271794024</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.278107</v>
-      </c>
-      <c r="E22" s="5" t="n">
+      <c r="D22" s="5">
+        <v>0.27810699999999999</v>
+      </c>
+      <c r="E22" s="5">
         <v>0.280339</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="5">
         <v>0.330679</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>275224297</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.273728</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.268927</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.322119</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="D23" s="5">
+        <v>0.27372800000000003</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.26892700000000003</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.32211899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>279372827</v>
       </c>
-      <c r="D24" s="5" t="n">
-        <v>0.285101</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>0.269334</v>
-      </c>
-      <c r="F24" s="5" t="n">
+      <c r="D24" s="5">
+        <v>0.28510099999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.26933400000000002</v>
+      </c>
+      <c r="F24" s="5">
         <v>0.297041</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4452,10 +4661,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4463,42 +4671,39 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="5"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4521,467 +4726,465 @@
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">AVERAGE(C:C)</f>
-        <v>375280389.65</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <f aca="false">AVERAGE(D:D)</f>
-        <v>2.4075854</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <f aca="false">AVERAGE(E:E)</f>
-        <v>2.38587475</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <f aca="false">AVERAGE(F:F)</f>
-        <v>2.6151527</v>
+      <c r="K4" s="2">
+        <f>AVERAGE(C:C)</f>
+        <v>375280389.64999998</v>
+      </c>
+      <c r="L4" s="6">
+        <f>AVERAGE(D:D)</f>
+        <v>2.4075853999999994</v>
+      </c>
+      <c r="M4" s="6">
+        <f>AVERAGE(E:E)</f>
+        <v>2.3858747500000002</v>
+      </c>
+      <c r="N4" s="6">
+        <f>AVERAGE(F:F)</f>
+        <v>2.6151527000000003</v>
       </c>
       <c r="O4" s="6" t="e">
-        <f aca="false">AVERAGE(G:G)</f>
+        <f>AVERAGE(G:G)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>374294983</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>2.402683</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="5">
+        <v>2.4026830000000001</v>
+      </c>
+      <c r="E5" s="5">
         <v>2.369132</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>2.610426</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="0" t="s">
+      <c r="F5" s="5">
+        <v>2.6104259999999999</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">MAX(C:C)</f>
+      <c r="K5" s="2">
+        <f>MAX(C:C)</f>
         <v>401849698</v>
       </c>
-      <c r="L5" s="6" t="n">
-        <f aca="false">MAX(D:D)</f>
-        <v>2.454965</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <f aca="false">MAX(E:E)</f>
-        <v>2.417187</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <f aca="false">MAX(F:F)</f>
-        <v>2.627388</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <f aca="false">MAX(G:G)</f>
+      <c r="L5" s="6">
+        <f>MAX(D:D)</f>
+        <v>2.4549650000000001</v>
+      </c>
+      <c r="M5" s="6">
+        <f>MAX(E:E)</f>
+        <v>2.4171870000000002</v>
+      </c>
+      <c r="N5" s="6">
+        <f>MAX(F:F)</f>
+        <v>2.6273879999999998</v>
+      </c>
+      <c r="O5" s="6">
+        <f>MAX(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>369115781</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>2.397129</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>2.416695</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>2.614089</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="0" t="s">
+      <c r="D6" s="5">
+        <v>2.3971290000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.4166949999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.6140889999999999</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">MIN(C:C)</f>
+      <c r="K6" s="2">
+        <f>MIN(C:C)</f>
         <v>365116340</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <f aca="false">MIN(D:D)</f>
-        <v>2.396975</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <f aca="false">MIN(E:E)</f>
+      <c r="L6" s="6">
+        <f>MIN(D:D)</f>
+        <v>2.3969749999999999</v>
+      </c>
+      <c r="M6" s="6">
+        <f>MIN(E:E)</f>
         <v>2.369132</v>
       </c>
-      <c r="N6" s="6" t="n">
-        <f aca="false">MIN(F:F)</f>
-        <v>2.603393</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <f aca="false">MIN(G:G)</f>
+      <c r="N6" s="6">
+        <f>MIN(F:F)</f>
+        <v>2.6033930000000001</v>
+      </c>
+      <c r="O6" s="6">
+        <f>MIN(G:G)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>365361590</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>2.408448</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>2.381404</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>2.612192</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="D7" s="5">
+        <v>2.4084479999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.3814039999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.6121919999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>369738954</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>2.403862</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>2.383195</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>2.613002</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="D8" s="5">
+        <v>2.4038620000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.3831950000000002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.6130019999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>384714342</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>2.399091</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>2.376133</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>2.614231</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="D9" s="5">
+        <v>2.3990909999999999</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.3761329999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.6142310000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>379622389</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>2.402336</v>
       </c>
-      <c r="E10" s="5" t="n">
-        <v>2.378613</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>2.612586</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="E10" s="5">
+        <v>2.3786130000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.6125859999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>370558451</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>2.402084</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2.383872</v>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="D11" s="5">
+        <v>2.4020839999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.3838720000000002</v>
+      </c>
+      <c r="F11" s="5">
         <v>2.61124</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>370085855</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>2.426171</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>2.398437</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>2.606964</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="D12" s="5">
+        <v>2.4261710000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.3984369999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.6069640000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2">
         <v>368458274</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>2.401036</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>2.385382</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>2.621711</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="D13" s="5">
+        <v>2.4010359999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.3853819999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2.6217109999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2">
         <v>366311159</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>2.403934</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>2.386955</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>2.623808</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="E14" s="5">
+        <v>2.3869549999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2.6238079999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2">
         <v>394321048</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>2.400091</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>2.388078</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>2.620071</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="D15" s="5">
+        <v>2.4000910000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.3880780000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.6200709999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2">
         <v>365116340</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>2.411055</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>2.379935</v>
-      </c>
-      <c r="F16" s="5" t="n">
+      <c r="D16" s="5">
+        <v>2.4110550000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.3799350000000001</v>
+      </c>
+      <c r="F16" s="5">
         <v>2.618852</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2">
         <v>367981460</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>2.399408</v>
-      </c>
-      <c r="E17" s="5" t="n">
+      <c r="D17" s="5">
+        <v>2.3994080000000002</v>
+      </c>
+      <c r="E17" s="5">
         <v>2.373275</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>2.613492</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="F17" s="5">
+        <v>2.6134919999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2">
         <v>367823709</v>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>2.396975</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>2.379536</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>2.603393</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="D18" s="5">
+        <v>2.3969749999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.3795359999999999</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2.6033930000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2">
         <v>367662805</v>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>2.405839</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>2.381346</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>2.606129</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="D19" s="5">
+        <v>2.4058389999999998</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.3813460000000002</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2.6061290000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2">
         <v>393176757</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>2.454965</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>2.403609</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>2.615589</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="D20" s="5">
+        <v>2.4549650000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2.4036089999999999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2.6155889999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2">
         <v>369549230</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <v>2.400499</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>2.417187</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>2.617379</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="D21" s="5">
+        <v>2.4004989999999999</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.4171870000000002</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2.6173790000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2">
         <v>401849698</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>2.408389</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>2.378667</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>2.617379</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="D22" s="5">
+        <v>2.4083890000000001</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.3786670000000001</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2.6173790000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2">
         <v>377499437</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>2.418307</v>
       </c>
-      <c r="E23" s="5" t="n">
-        <v>2.378496</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>2.627388</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="E23" s="5">
+        <v>2.3784960000000002</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.6273879999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2">
         <v>382365531</v>
       </c>
-      <c r="D24" s="5" t="n">
-        <v>2.409406</v>
-      </c>
-      <c r="E24" s="5" t="n">
+      <c r="D24" s="5">
+        <v>2.4094060000000002</v>
+      </c>
+      <c r="E24" s="5">
         <v>2.377548</v>
       </c>
-      <c r="F24" s="5" t="n">
-        <v>2.623133</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="F24" s="5">
+        <v>2.6231330000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4989,10 +5192,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Grad 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="20">
   <si>
     <t xml:space="preserve">ZEIT ( in Nanosekunden)</t>
   </si>
@@ -84,10 +84,7 @@
     <t xml:space="preserve">Linux Kernel 5.4.0-26-generic</t>
   </si>
   <si>
-    <t xml:space="preserve">Kompiliert mit Option -03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gcc version adden</t>
+    <t xml:space="preserve">Kompiliert mit GCC 9.3.0 mit Option -03</t>
   </si>
   <si>
     <t xml:space="preserve">ZEIT ( in Sekunden)</t>
@@ -103,7 +100,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,12 +130,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,10 +215,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,14 +227,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{40131631-FC7F-0000-9F42-96F1177F0000}"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -256,10 +235,10 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -792,7 +771,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -800,31 +779,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -847,10 +822,10 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -1379,7 +1354,7 @@
         <v>5858</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -1387,31 +1362,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -1434,10 +1405,10 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -1445,7 +1416,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.15"/>
   </cols>
   <sheetData>
@@ -1505,11 +1477,11 @@
       </c>
       <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE(D:D)</f>
-        <v>24362.05</v>
+        <v>21693.7</v>
       </c>
       <c r="L4" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>21685.7</v>
+        <v>22095.6</v>
       </c>
       <c r="M4" s="1" t="n">
         <f aca="false">AVERAGE(F:F)</f>
@@ -1548,7 +1520,7 @@
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">MAX(D:D)</f>
-        <v>29460</v>
+        <v>22910</v>
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">MAX(E:E)</f>
@@ -1595,7 +1567,7 @@
       </c>
       <c r="L6" s="1" t="n">
         <f aca="false">MIN(E:E)</f>
-        <v>18577</v>
+        <v>18616</v>
       </c>
       <c r="M6" s="1" t="n">
         <f aca="false">MIN(F:F)</f>
@@ -1654,10 +1626,10 @@
         <v>22835</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>27892</v>
+        <v>21174</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>18794</v>
+        <v>23487</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>35212</v>
@@ -1674,7 +1646,7 @@
         <v>32542</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>28969</v>
+        <v>21860</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>19659</v>
@@ -1694,7 +1666,7 @@
         <v>32308</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>26652</v>
+        <v>21583</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>24683</v>
@@ -1717,7 +1689,7 @@
         <v>22910</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>18577</v>
+        <v>22082</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>25988</v>
@@ -1774,7 +1746,7 @@
         <v>34126</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>29460</v>
+        <v>21810</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>19575</v>
@@ -1794,7 +1766,7 @@
         <v>23261</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>26341</v>
+        <v>22650</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>26325</v>
@@ -1806,7 +1778,7 @@
         <v>24331</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
         <v>13</v>
       </c>
@@ -1814,7 +1786,7 @@
         <v>32492</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>26323</v>
+        <v>21359</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>20154</v>
@@ -1874,7 +1846,7 @@
         <v>23479</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>28255</v>
+        <v>21702</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>26268</v>
@@ -1894,7 +1866,7 @@
         <v>22470</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>27967</v>
+        <v>22466</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>18616</v>
@@ -1914,7 +1886,7 @@
         <v>23098</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>27362</v>
+        <v>21250</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>19103</v>
@@ -1966,7 +1938,7 @@
         <v>18363</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -1974,31 +1946,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -2020,11 +1988,11 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -2553,7 +2521,7 @@
         <v>213572</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -2561,31 +2529,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -2607,11 +2571,11 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -3139,7 +3103,7 @@
         <v>1880370</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -3147,31 +3111,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -3193,11 +3153,11 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
@@ -3725,7 +3685,7 @@
         <v>5968152</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -3733,31 +3693,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -3779,11 +3735,11 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.15"/>
@@ -4315,7 +4271,7 @@
         <v>31633687</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -4323,31 +4279,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -4369,11 +4321,11 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="25.15"/>
@@ -4393,7 +4345,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4655,7 +4607,7 @@
       <c r="B12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="8" t="n">
         <v>0.316063</v>
       </c>
       <c r="D12" s="6" t="n">
@@ -4912,7 +4864,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>13</v>
       </c>
@@ -4920,31 +4872,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -4966,21 +4914,21 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="6" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.57"/>
@@ -4988,18 +4936,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -5015,7 +4963,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -5038,9 +4986,9 @@
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="5" t="n">
         <f aca="false">AVERAGE(C:C)</f>
-        <v>375280389.65</v>
+        <v>2.81628035</v>
       </c>
       <c r="L4" s="5" t="n">
         <f aca="false">AVERAGE(D:D)</f>
@@ -5063,8 +5011,8 @@
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>374294983</v>
+      <c r="C5" s="5" t="n">
+        <v>2.974295</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>2.402683</v>
@@ -5082,9 +5030,9 @@
       <c r="J5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="5" t="n">
         <f aca="false">MAX(C:C)</f>
-        <v>401849698</v>
+        <v>2.993177</v>
       </c>
       <c r="L5" s="5" t="n">
         <f aca="false">MAX(D:D)</f>
@@ -5107,8 +5055,8 @@
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>369115781</v>
+      <c r="C6" s="5" t="n">
+        <v>2.969116</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>2.397129</v>
@@ -5126,9 +5074,9 @@
       <c r="J6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="5" t="n">
         <f aca="false">MIN(C:C)</f>
-        <v>365116340</v>
+        <v>2.667663</v>
       </c>
       <c r="L6" s="5" t="n">
         <f aca="false">MIN(D:D)</f>
@@ -5151,8 +5099,8 @@
       <c r="B7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>365361590</v>
+      <c r="C7" s="5" t="n">
+        <v>2.815362</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>2.408448</v>
@@ -5171,8 +5119,8 @@
       <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>369738954</v>
+      <c r="C8" s="5" t="n">
+        <v>2.669739</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>2.403862</v>
@@ -5191,8 +5139,8 @@
       <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>384714342</v>
+      <c r="C9" s="5" t="n">
+        <v>2.834714</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>2.399091</v>
@@ -5211,8 +5159,8 @@
       <c r="B10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>379622389</v>
+      <c r="C10" s="5" t="n">
+        <v>2.749622</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>2.402336</v>
@@ -5231,8 +5179,8 @@
       <c r="B11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>370558451</v>
+      <c r="C11" s="5" t="n">
+        <v>2.740558</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>2.402084</v>
@@ -5251,8 +5199,8 @@
       <c r="B12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>370085855</v>
+      <c r="C12" s="5" t="n">
+        <v>2.970086</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>2.426171</v>
@@ -5271,8 +5219,8 @@
       <c r="B13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>368458274</v>
+      <c r="C13" s="5" t="n">
+        <v>2.668458</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>2.401036</v>
@@ -5291,8 +5239,8 @@
       <c r="B14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>366311159</v>
+      <c r="C14" s="5" t="n">
+        <v>2.966311</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>2.403934</v>
@@ -5311,8 +5259,8 @@
       <c r="B15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>394321048</v>
+      <c r="C15" s="5" t="n">
+        <v>2.764321</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>2.400091</v>
@@ -5331,8 +5279,8 @@
       <c r="B16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>365116340</v>
+      <c r="C16" s="5" t="n">
+        <v>2.735116</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>2.411055</v>
@@ -5351,8 +5299,8 @@
       <c r="B17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>367981460</v>
+      <c r="C17" s="5" t="n">
+        <v>2.817981</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>2.399408</v>
@@ -5371,8 +5319,8 @@
       <c r="B18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>367823709</v>
+      <c r="C18" s="5" t="n">
+        <v>2.737824</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>2.396975</v>
@@ -5391,8 +5339,8 @@
       <c r="B19" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>367662805</v>
+      <c r="C19" s="5" t="n">
+        <v>2.667663</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>2.405839</v>
@@ -5411,8 +5359,8 @@
       <c r="B20" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>393176757</v>
+      <c r="C20" s="5" t="n">
+        <v>2.993177</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>2.454965</v>
@@ -5431,8 +5379,8 @@
       <c r="B21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>369549230</v>
+      <c r="C21" s="5" t="n">
+        <v>2.969549</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>2.400499</v>
@@ -5451,8 +5399,8 @@
       <c r="B22" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>401849698</v>
+      <c r="C22" s="5" t="n">
+        <v>2.77185</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>2.408389</v>
@@ -5471,8 +5419,8 @@
       <c r="B23" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>377499437</v>
+      <c r="C23" s="5" t="n">
+        <v>2.827499</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>2.418307</v>
@@ -5491,8 +5439,8 @@
       <c r="B24" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>382365531</v>
+      <c r="C24" s="5" t="n">
+        <v>2.682366</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>2.409406</v>
@@ -5535,11 +5483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>

--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -4915,7 +4915,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TUM\3. Semester\ASP\Projekt\ASP-Peano\Ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC253FF-DFA5-4FDA-A7E0-B36E24005170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ABFAAF-6339-4DFA-96A4-D7F1A776225F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,12 +245,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -267,23 +261,19 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF00FF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1932,97 +1922,97 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="3"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>925</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>874.1</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>828.9</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>1930.65</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>2358.4499999999998</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>2298.85</v>
       </c>
@@ -2031,48 +2021,48 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>1025</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>920</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>942</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>1905</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>2222</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>2212</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>1211</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>970</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>957</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>2460</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>2871</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>2876</v>
       </c>
@@ -2081,48 +2071,48 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>842</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>813</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>778</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>1680</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>2716</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>2876</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>740</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>758</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>1652</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
         <v>1932</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>1904</v>
       </c>
@@ -2131,22 +2121,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>1078</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>807</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>796</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>1733</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>2150</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>1975</v>
       </c>
     </row>
@@ -2154,22 +2144,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>1053</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>829</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>888</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>2460</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>2246</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>2132</v>
       </c>
     </row>
@@ -2177,22 +2167,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>754</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>895</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>738</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>1872</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>2492</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>2100</v>
       </c>
     </row>
@@ -2200,22 +2190,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>782</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>936</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>720</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>1691</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>2095</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>2656</v>
       </c>
     </row>
@@ -2223,22 +2213,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>1010</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>822</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>814</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>2158</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>2871</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>2434</v>
       </c>
     </row>
@@ -2246,22 +2236,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>975</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>834</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>802</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>2087</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>2662</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>2025</v>
       </c>
     </row>
@@ -2269,22 +2259,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>822</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>758</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>794</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>1957</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>2082</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>1904</v>
       </c>
     </row>
@@ -2292,22 +2282,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>1121</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>877</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>904</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>2207</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>2095</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>2136</v>
       </c>
     </row>
@@ -2315,22 +2305,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>1211</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>923</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>744</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>1708</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>2297</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>2571</v>
       </c>
     </row>
@@ -2338,22 +2328,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>774</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>958</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>809</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>1881</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>1961</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>2153</v>
       </c>
     </row>
@@ -2361,22 +2351,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>1107</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>882</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>824</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>1737</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>2870</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>2354</v>
       </c>
     </row>
@@ -2384,22 +2374,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>1052</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>858</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>957</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>1713</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>2570</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>2252</v>
       </c>
     </row>
@@ -2407,22 +2397,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>1034</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>836</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>826</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>2220</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>2167</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>1940</v>
       </c>
     </row>
@@ -2430,22 +2420,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>828</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>826</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>749</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>1652</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>2245</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>2166</v>
       </c>
     </row>
@@ -2453,22 +2443,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>755</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>887</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>851</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>2413</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>2497</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>2801</v>
       </c>
     </row>
@@ -2476,22 +2466,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>755</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>929</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>845</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>1678</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>2588</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>2465</v>
       </c>
     </row>
@@ -2499,22 +2489,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>740</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>970</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>948</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>2062</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>2411</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>2037</v>
       </c>
     </row>
@@ -2522,22 +2512,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>782</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>922</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>849</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>1799</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>1932</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>2788</v>
       </c>
     </row>
@@ -2604,700 +2594,700 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="13" t="s">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <f>'Grad 1'!M4</f>
         <v>874.1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f>'Grad 1'!N4</f>
         <v>828.9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f>'Grad 1'!O4</f>
         <v>1930.65</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f>'Grad 1'!P4</f>
         <v>2358.4499999999998</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f>'Grad 1'!Q4</f>
         <v>2298.85</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <f>B5</f>
         <v>874.1</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f>C5/B5- 1</f>
         <v>-5.171033062578656E-2</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f>D5/B5 - 1</f>
         <v>1.2087289783777599</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="13">
         <f>E5/B5 - 1</f>
         <v>1.6981466651412878</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="13">
         <f>F5/B5 - 1</f>
         <v>1.6299622468825077</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="13">
         <f>B5/C5 - 1</f>
         <v>5.4530100132706094E-2</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="15">
         <f>C5</f>
         <v>828.9</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="13">
         <f>D5/C5 - 1</f>
         <v>1.329171190734709</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="13">
         <f>E5/C5 - 1</f>
         <v>1.8452768729641691</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="13">
         <f>F5/C5 - 1</f>
         <v>1.7733743515502471</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f>'Grad 2'!M4</f>
         <v>4562.95</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f>'Grad 2'!N4</f>
         <v>3545.7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f>'Grad 2'!O4</f>
         <v>5958.45</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>'Grad 2'!P4</f>
         <v>7131.25</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f>'Grad 2'!Q4</f>
         <v>5449.6</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <f t="shared" ref="K6:K13" si="0">B6</f>
         <v>4562.95</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f t="shared" ref="L6:L13" si="1">C6/B6- 1</f>
         <v>-0.22293691581104336</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
         <f t="shared" ref="M6:M13" si="2">D6/B6 - 1</f>
         <v>0.30583284936280264</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="13">
         <f t="shared" ref="N6:N13" si="3">E6/B6 - 1</f>
         <v>0.56285955357827722</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="13">
         <f t="shared" ref="O6:O13" si="4">F6/B6 - 1</f>
         <v>0.19431508125226027</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="13">
         <f t="shared" ref="R6:R13" si="5">B6/C6 - 1</f>
         <v>0.28689680458019584</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="15">
         <f t="shared" ref="S6:S13" si="6">C6</f>
         <v>3545.7</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="13">
         <f t="shared" ref="T6:T13" si="7">D6/C6 - 1</f>
         <v>0.68047212116084266</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="13">
         <f t="shared" ref="U6:U13" si="8">E6/C6 - 1</f>
         <v>1.0112389655075162</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="13">
         <f t="shared" ref="V6:V13" si="9">F6/C6 - 1</f>
         <v>0.53696026172547051</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f>'Grad 3'!M4</f>
         <v>21693.7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f>'Grad 3'!N4</f>
         <v>19267.05</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f>'Grad 3'!O4</f>
         <v>22095.599999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f>'Grad 3'!P4</f>
         <v>29450.1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>'Grad 3'!Q4</f>
         <v>20101.400000000001</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
         <v>21693.7</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f t="shared" si="1"/>
         <v>-0.11185966432650962</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <f t="shared" si="2"/>
         <v>1.8526115876959626E-2</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="13">
         <f t="shared" si="3"/>
         <v>0.35754159041565048</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="13">
         <f t="shared" si="4"/>
         <v>-7.3399189626481398E-2</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="13">
         <f t="shared" si="5"/>
         <v>0.12594818615200576</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="15">
         <f t="shared" si="6"/>
         <v>19267.05</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="13">
         <f t="shared" si="7"/>
         <v>0.14680763272011021</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="13">
         <f t="shared" si="8"/>
         <v>0.52852149135441073</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="13">
         <f t="shared" si="9"/>
         <v>4.3304501727041922E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>'Grad 4'!M4</f>
         <v>210197.7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f>'Grad 4'!N4</f>
         <v>207927.45</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f>'Grad 4'!O4</f>
         <v>221833.05</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f>'Grad 4'!P4</f>
         <v>252268.05</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f>'Grad 4'!Q4</f>
         <v>212634.7</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <f t="shared" si="0"/>
         <v>210197.7</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f t="shared" si="1"/>
         <v>-1.0800546342800144E-2</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
         <f t="shared" si="2"/>
         <v>5.5354316436383444E-2</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="13">
         <f t="shared" si="3"/>
         <v>0.20014657629460264</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="13">
         <f t="shared" si="4"/>
         <v>1.1593847125824785E-2</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="13">
         <f t="shared" si="5"/>
         <v>1.0918471803506469E-2</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="15">
         <f t="shared" si="6"/>
         <v>207927.45</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="13">
         <f t="shared" si="7"/>
         <v>6.687717278310279E-2</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="13">
         <f t="shared" si="8"/>
         <v>0.21325034284794997</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="13">
         <f t="shared" si="9"/>
         <v>2.2638906022268923E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <f>'Grad 5'!M4</f>
         <v>1829848.5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <f>'Grad 5'!N4</f>
         <v>1852378.45</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f>'Grad 5'!O4</f>
         <v>2074699.9</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>'Grad 5'!P4</f>
         <v>2107929.7999999998</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f>'Grad 5'!Q4</f>
         <v>1965193.05</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <f t="shared" si="0"/>
         <v>1829848.5</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f t="shared" si="1"/>
         <v>1.231246739825731E-2</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="13">
         <f t="shared" si="2"/>
         <v>0.13380965691968494</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="13">
         <f t="shared" si="3"/>
         <v>0.15196957562333702</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="13">
         <f t="shared" si="4"/>
         <v>7.3964893814979726E-2</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="13">
         <f t="shared" si="5"/>
         <v>-1.2162714374052475E-2</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="15">
         <f t="shared" si="6"/>
         <v>1852378.45</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="13">
         <f t="shared" si="7"/>
         <v>0.12001945390802837</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="13">
         <f t="shared" si="8"/>
         <v>0.13795849870743204</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="13">
         <f t="shared" si="9"/>
         <v>6.0902565563748734E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <f>'Grad 6'!M4</f>
         <v>5807594.9500000002</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <f>'Grad 6'!N4</f>
         <v>5997884.7999999998</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f>'Grad 6'!O4</f>
         <v>6308944.3499999996</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>'Grad 6'!P4</f>
         <v>6692878.8499999996</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f>'Grad 6'!Q4</f>
         <v>6039483.0499999998</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <f t="shared" si="0"/>
         <v>5807594.9500000002</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <f t="shared" si="1"/>
         <v>3.2765689005222365E-2</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="13">
         <f t="shared" si="2"/>
         <v>8.632650939267017E-2</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="13">
         <f t="shared" si="3"/>
         <v>0.15243554476883747</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="13">
         <f t="shared" si="4"/>
         <v>3.9928421661018065E-2</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="13">
         <f t="shared" si="5"/>
         <v>-3.1726159528772446E-2</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="15">
         <f t="shared" si="6"/>
         <v>5997884.7999999998</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="13">
         <f t="shared" si="7"/>
         <v>5.1861541255343813E-2</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="13">
         <f t="shared" si="8"/>
         <v>0.11587319082887348</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="13">
         <f t="shared" si="9"/>
         <v>6.9354866568960283E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <f>'Grad 7'!M4</f>
         <v>31801408.399999999</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f>'Grad 7'!N4</f>
         <v>32001060.100000001</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f>'Grad 7'!O4</f>
         <v>35985537.649999999</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>'Grad 7'!P4</f>
         <v>42620818.299999997</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f>'Grad 7'!Q4</f>
         <v>32756551.050000001</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <f t="shared" si="0"/>
         <v>31801408.399999999</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
         <v>6.2780772942119256E-3</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <f t="shared" si="2"/>
         <v>0.13157056434016301</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="13">
         <f t="shared" si="3"/>
         <v>0.34021794770573743</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="13">
         <f t="shared" si="4"/>
         <v>3.0034602178185432E-2</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="13">
         <f t="shared" si="5"/>
         <v>-6.2389089416448051E-3</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="15">
         <f t="shared" si="6"/>
         <v>32001060.100000001</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="13">
         <f t="shared" si="7"/>
         <v>0.12451079862819903</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="13">
         <f t="shared" si="8"/>
         <v>0.3318564499680432</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="13">
         <f t="shared" si="9"/>
         <v>2.3608310088452322E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <f>'Grad 8'!M4* 1000000000</f>
         <v>274381650.00000006</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <f>'Grad 8'!N4* 1000000000</f>
         <v>264060050</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <f>'Grad 8'!O4* 1000000000</f>
         <v>276779550</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f>'Grad 8'!P4 * 1000000000</f>
         <v>303332699.99999994</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>'Grad 8'!Q4* 1000000000</f>
         <v>260258349.99999997</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <f t="shared" si="0"/>
         <v>274381650.00000006</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>-3.7617675963389163E-2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <f t="shared" si="2"/>
         <v>8.7392870478033569E-3</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="13">
         <f t="shared" si="3"/>
         <v>0.10551379802548699</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="13">
         <f t="shared" si="4"/>
         <v>-5.147319436266995E-2</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="13">
         <f t="shared" si="5"/>
         <v>3.9088078639688328E-2</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <f t="shared" si="6"/>
         <v>264060050</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="13">
         <f t="shared" si="7"/>
         <v>4.8168967626871284E-2</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="13">
         <f t="shared" si="8"/>
         <v>0.14872620829996785</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="13">
         <f t="shared" si="9"/>
         <v>-1.4397103992065508E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <f>'Grad 9'!M4* 1000000000</f>
         <v>2405585400</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f>'Grad 9'!N4* 1000000000</f>
         <v>2339423499.9999995</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <f>'Grad 9'!O4* 1000000000</f>
         <v>2385874750</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f>'Grad 9'!P4* 1000000000</f>
         <v>2615152700.0000005</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <f>'Grad 9'!Q4* 1000000000</f>
         <v>2298011249.9999995</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <f t="shared" si="0"/>
         <v>2405585400</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="14">
         <f t="shared" si="1"/>
         <v>-2.7503450927163331E-2</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="14">
         <f t="shared" si="2"/>
         <v>-8.1937020402601535E-3</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="14">
         <f t="shared" si="3"/>
         <v>8.7116965375662936E-2</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="14">
         <f t="shared" si="4"/>
         <v>-4.4718491390910664E-2</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="14">
         <f t="shared" si="5"/>
         <v>2.8281283829114434E-2</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="16">
         <f t="shared" si="6"/>
         <v>2339423499.9999995</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="14">
         <f t="shared" si="7"/>
         <v>1.9855853375842614E-2</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="14">
         <f t="shared" si="8"/>
         <v>0.11786202882889785</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="14">
         <f t="shared" si="9"/>
         <v>-1.7701903909232319E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L5:O13 R5:R13 T5:V13">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3318,96 +3308,96 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="3"/>
-    <col min="8" max="8" width="10.5703125" style="3"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="8" max="8" width="10.5703125" style="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="13" width="10.5703125" style="3"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3"/>
-    <col min="16" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="3"/>
+    <col min="10" max="13" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>5412.5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>4562.95</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>3545.7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>5958.45</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>7131.25</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>5449.6</v>
       </c>
@@ -3416,7 +3406,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>6042</v>
       </c>
       <c r="D5">
@@ -3425,39 +3415,39 @@
       <c r="E5">
         <v>3629</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>5923</v>
       </c>
       <c r="G5">
         <v>6776</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>4762</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>6472</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>5524</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>3687</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>7432</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>8595</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>6733</v>
       </c>
@@ -3466,7 +3456,7 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>6040</v>
       </c>
       <c r="D6">
@@ -3475,39 +3465,39 @@
       <c r="E6">
         <v>3610</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>5096</v>
       </c>
       <c r="G6">
         <v>6829</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>5200</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>4319</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>4007</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>3320</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>5096</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
         <v>6203</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>4588</v>
       </c>
@@ -3516,7 +3506,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>5207</v>
       </c>
       <c r="D7">
@@ -3525,13 +3515,13 @@
       <c r="E7">
         <v>3428</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>5751</v>
       </c>
       <c r="G7">
         <v>8532</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>4588</v>
       </c>
     </row>
@@ -3539,7 +3529,7 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>4710</v>
       </c>
       <c r="D8">
@@ -3548,13 +3538,13 @@
       <c r="E8">
         <v>3492</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>5847</v>
       </c>
       <c r="G8">
         <v>6550</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>4938</v>
       </c>
     </row>
@@ -3562,7 +3552,7 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>5941</v>
       </c>
       <c r="D9">
@@ -3571,13 +3561,13 @@
       <c r="E9">
         <v>3550</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>6375</v>
       </c>
       <c r="G9">
         <v>6484</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>4623</v>
       </c>
     </row>
@@ -3585,7 +3575,7 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>4579</v>
       </c>
       <c r="D10">
@@ -3594,13 +3584,13 @@
       <c r="E10">
         <v>3687</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>7242</v>
       </c>
       <c r="G10">
         <v>7146</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>4984</v>
       </c>
     </row>
@@ -3608,7 +3598,7 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>4838</v>
       </c>
       <c r="D11">
@@ -3617,13 +3607,13 @@
       <c r="E11">
         <v>3558</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>5488</v>
       </c>
       <c r="G11">
         <v>8279</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>6116</v>
       </c>
     </row>
@@ -3631,7 +3621,7 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>6004</v>
       </c>
       <c r="D12">
@@ -3640,13 +3630,13 @@
       <c r="E12">
         <v>3614</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>5320</v>
       </c>
       <c r="G12">
         <v>8458</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>5191</v>
       </c>
     </row>
@@ -3654,7 +3644,7 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>4797</v>
       </c>
       <c r="D13">
@@ -3663,13 +3653,13 @@
       <c r="E13">
         <v>3638</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>6160</v>
       </c>
       <c r="G13">
         <v>6687</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>6733</v>
       </c>
     </row>
@@ -3677,7 +3667,7 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>5278</v>
       </c>
       <c r="D14">
@@ -3686,13 +3676,13 @@
       <c r="E14">
         <v>3452</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>5896</v>
       </c>
       <c r="G14">
         <v>8136</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>5225</v>
       </c>
     </row>
@@ -3700,7 +3690,7 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>5193</v>
       </c>
       <c r="D15">
@@ -3709,13 +3699,13 @@
       <c r="E15">
         <v>3576</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>5382</v>
       </c>
       <c r="G15">
         <v>6929</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>4652</v>
       </c>
     </row>
@@ -3723,7 +3713,7 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>4319</v>
       </c>
       <c r="D16">
@@ -3732,13 +3722,13 @@
       <c r="E16">
         <v>3588</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>5154</v>
       </c>
       <c r="G16">
         <v>8595</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>6359</v>
       </c>
     </row>
@@ -3746,7 +3736,7 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>6446</v>
       </c>
       <c r="D17">
@@ -3755,13 +3745,13 @@
       <c r="E17">
         <v>3424</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>7432</v>
       </c>
       <c r="G17">
         <v>6493</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>6350</v>
       </c>
     </row>
@@ -3769,7 +3759,7 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>6269</v>
       </c>
       <c r="D18">
@@ -3778,13 +3768,13 @@
       <c r="E18">
         <v>3591</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>5909</v>
       </c>
       <c r="G18">
         <v>6891</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>5967</v>
       </c>
     </row>
@@ -3792,7 +3782,7 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>6148</v>
       </c>
       <c r="D19">
@@ -3801,13 +3791,13 @@
       <c r="E19">
         <v>3536</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>5110</v>
       </c>
       <c r="G19">
         <v>6669</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>4982</v>
       </c>
     </row>
@@ -3815,7 +3805,7 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>4496</v>
       </c>
       <c r="D20">
@@ -3824,13 +3814,13 @@
       <c r="E20">
         <v>3562</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>7151</v>
       </c>
       <c r="G20">
         <v>6269</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>4900</v>
       </c>
     </row>
@@ -3838,7 +3828,7 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>5753</v>
       </c>
       <c r="D21">
@@ -3847,13 +3837,13 @@
       <c r="E21">
         <v>3320</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>6208</v>
       </c>
       <c r="G21">
         <v>6448</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>6166</v>
       </c>
     </row>
@@ -3861,7 +3851,7 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>6472</v>
       </c>
       <c r="D22">
@@ -3870,13 +3860,13 @@
       <c r="E22">
         <v>3538</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>5621</v>
       </c>
       <c r="G22">
         <v>6203</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>6615</v>
       </c>
     </row>
@@ -3884,7 +3874,7 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>4786</v>
       </c>
       <c r="D23">
@@ -3893,13 +3883,13 @@
       <c r="E23">
         <v>3626</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>5999</v>
       </c>
       <c r="G23">
         <v>6655</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>4783</v>
       </c>
     </row>
@@ -3907,7 +3897,7 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>4932</v>
       </c>
       <c r="D24">
@@ -3916,13 +3906,13 @@
       <c r="E24">
         <v>3495</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>6105</v>
       </c>
       <c r="G24">
         <v>7596</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>5858</v>
       </c>
     </row>
@@ -3978,97 +3968,97 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" style="3"/>
+    <col min="6" max="8" width="10.5703125" style="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="3"/>
-    <col min="11" max="11" width="7.28515625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" style="3"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1"/>
+    <col min="11" max="11" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>26906.35</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>21693.7</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>19267.05</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>22095.599999999999</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>29450.1</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>20101.400000000001</v>
       </c>
@@ -4077,48 +4067,48 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>23246</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>21760</v>
       </c>
       <c r="E5">
         <v>19384</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>19314</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>24668</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>17666</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>34126</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>22910</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>19946</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>26404</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>35794</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>24849</v>
       </c>
@@ -4127,48 +4117,48 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>23860</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>21854</v>
       </c>
       <c r="E6">
         <v>19017</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>23459</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>30940</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>24009</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>22399</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>20897</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>18564</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>18616</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
         <v>24668</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>17084</v>
       </c>
@@ -4177,22 +4167,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>22399</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>21154</v>
       </c>
       <c r="E7">
         <v>19007</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>19184</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>31697</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>17963</v>
       </c>
     </row>
@@ -4200,22 +4190,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>33207</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>21265</v>
       </c>
       <c r="E8">
         <v>18588</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>24137</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>26608</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>17084</v>
       </c>
     </row>
@@ -4223,22 +4213,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>22835</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>21174</v>
       </c>
       <c r="E9">
         <v>19894</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>23487</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>35212</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>23953</v>
       </c>
     </row>
@@ -4246,22 +4236,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>32542</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>21860</v>
       </c>
       <c r="E10">
         <v>19637</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>19659</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>33609</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>21839</v>
       </c>
     </row>
@@ -4269,22 +4259,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>32308</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>21583</v>
       </c>
       <c r="E11">
         <v>19348</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>24683</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>25171</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>17225</v>
       </c>
     </row>
@@ -4292,22 +4282,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>23001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>22910</v>
       </c>
       <c r="E12">
         <v>19251</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>22082</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>25988</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>22471</v>
       </c>
     </row>
@@ -4315,22 +4305,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>22901</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>22367</v>
       </c>
       <c r="E13">
         <v>18958</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>25679</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>25329</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>18651</v>
       </c>
     </row>
@@ -4338,22 +4328,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>30736</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>21539</v>
       </c>
       <c r="E14">
         <v>18645</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>24954</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>24753</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>24849</v>
       </c>
     </row>
@@ -4361,22 +4351,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>34126</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>21810</v>
       </c>
       <c r="E15">
         <v>18757</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>19575</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>35794</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>24092</v>
       </c>
     </row>
@@ -4384,22 +4374,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>23261</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>22650</v>
       </c>
       <c r="E16">
         <v>19105</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>26325</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>35494</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>24331</v>
       </c>
     </row>
@@ -4407,22 +4397,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>32492</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>21359</v>
       </c>
       <c r="E17">
         <v>19134</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>20154</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>33103</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>18332</v>
       </c>
     </row>
@@ -4430,22 +4420,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>23412</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>21136</v>
       </c>
       <c r="E18">
         <v>19771</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>20054</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>25716</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>17575</v>
       </c>
     </row>
@@ -4453,22 +4443,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>32939</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>21239</v>
       </c>
       <c r="E19">
         <v>19884</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>26404</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>26229</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>18359</v>
       </c>
     </row>
@@ -4476,22 +4466,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>23479</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>21702</v>
       </c>
       <c r="E20">
         <v>19637</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>26268</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>27817</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>21720</v>
       </c>
     </row>
@@ -4499,22 +4489,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>22470</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>22466</v>
       </c>
       <c r="E21">
         <v>18564</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>18616</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>33425</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>17223</v>
       </c>
     </row>
@@ -4522,22 +4512,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>23098</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>21250</v>
       </c>
       <c r="E22">
         <v>19599</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>19103</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>34593</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>17759</v>
       </c>
     </row>
@@ -4545,22 +4535,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>23691</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>21899</v>
       </c>
       <c r="E23">
         <v>19215</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>19388</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>27283</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>18564</v>
       </c>
     </row>
@@ -4568,22 +4558,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>32124</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>20897</v>
       </c>
       <c r="E24">
         <v>19946</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>19387</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>25573</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>18363</v>
       </c>
     </row>
@@ -4639,96 +4629,96 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" style="3"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" style="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="13" width="10.5703125" style="3"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3"/>
-    <col min="16" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="3"/>
+    <col min="10" max="13" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>232306.45</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>210197.7</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>207927.45</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>221833.05</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>252268.05</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>212634.7</v>
       </c>
@@ -4737,48 +4727,48 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>253653</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>202296</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>200088</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>283232</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>250027</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>212884</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>267750</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>228527</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>219748</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>283232</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>287083</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>256089</v>
       </c>
@@ -4787,48 +4777,48 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>211409</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>209003</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>219748</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>210963</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>250285</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>196309</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>211244</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>200012</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>199677</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>207175</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
         <v>234029</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>195870</v>
       </c>
@@ -4837,22 +4827,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>239412</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>221849</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>209272</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>233220</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>255294</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>197958</v>
       </c>
     </row>
@@ -4860,22 +4850,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>242185</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>200713</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>209027</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>252404</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>256800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>198966</v>
       </c>
     </row>
@@ -4883,22 +4873,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>254063</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>212541</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>209087</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>228405</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>287083</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>252842</v>
       </c>
     </row>
@@ -4906,22 +4896,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>267750</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>200854</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>210218</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>218186</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>243886</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>218432</v>
       </c>
     </row>
@@ -4929,22 +4919,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>213434</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>202047</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>209732</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>208647</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>234029</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>212686</v>
       </c>
     </row>
@@ -4952,22 +4942,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>251425</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>221590</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>210286</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>209981</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>247170</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>196603</v>
       </c>
     </row>
@@ -4975,22 +4965,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>230739</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>228527</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>202991</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>262263</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>270945</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>241622</v>
       </c>
     </row>
@@ -4998,22 +4988,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>236259</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>217818</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>208340</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>219168</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>244015</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>256089</v>
       </c>
     </row>
@@ -5021,22 +5011,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>225461</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>202886</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>202145</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>215979</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>234704</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>198036</v>
       </c>
     </row>
@@ -5044,22 +5034,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>237666</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>202632</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>202753</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>208900</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>275874</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>204603</v>
       </c>
     </row>
@@ -5067,22 +5057,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>212087</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>207485</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>212640</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>215822</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>242003</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>198402</v>
       </c>
     </row>
@@ -5090,22 +5080,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>211244</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>217258</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>217914</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>209179</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>252112</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>238965</v>
       </c>
     </row>
@@ -5113,22 +5103,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>213523</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>202331</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>212076</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>208616</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>244208</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>195870</v>
       </c>
     </row>
@@ -5136,22 +5126,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>232889</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>210864</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>199677</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>209045</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>251636</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>196559</v>
       </c>
     </row>
@@ -5159,22 +5149,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>222910</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>224717</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>200869</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>207810</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>255450</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>197413</v>
       </c>
     </row>
@@ -5182,22 +5172,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>222010</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>200012</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>207163</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>207876</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>239294</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>211896</v>
       </c>
     </row>
@@ -5205,22 +5195,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>234717</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>207603</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>204953</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>207175</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>269912</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>212987</v>
       </c>
     </row>
@@ -5228,22 +5218,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>233293</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>210928</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>209570</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>219790</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>240634</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>213572</v>
       </c>
     </row>
@@ -5299,96 +5289,96 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" style="3"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" style="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="13" width="10.5703125" style="3"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3"/>
-    <col min="16" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="3"/>
+    <col min="10" max="13" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>1957289.15</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>1829848.5</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>1852378.45</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>2074699.9</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>2107929.7999999998</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>1965193.05</v>
       </c>
@@ -5397,48 +5387,48 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>1926455</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1835741</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>1853661</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>1940794</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>2092754</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>1927364</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>2025186</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>1878055</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>1898287</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>2679778</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>2202317</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>2466896</v>
       </c>
@@ -5447,48 +5437,48 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>1953605</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1731226</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>1843388</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>1934058</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>2075535</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>1941544</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>1926455</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>1731226</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>1589892</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>1934058</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
         <v>2073577</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>1851166</v>
       </c>
@@ -5497,22 +5487,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>1954987</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1845875</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>1865259</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>1947387</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>2075063</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>1851166</v>
       </c>
     </row>
@@ -5520,22 +5510,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>1930269</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1878055</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>1851925</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>2679778</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>2177992</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>1925192</v>
       </c>
     </row>
@@ -5543,22 +5533,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>1972142</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>1824269</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>1870988</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>2022932</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>2100669</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>1910119</v>
       </c>
     </row>
@@ -5566,22 +5556,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>1950789</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1793288</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>1881891</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>1998672</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>2103384</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>1904408</v>
       </c>
     </row>
@@ -5589,22 +5579,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>1974214</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1815194</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>1851077</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>2405677</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>2146743</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>1905270</v>
       </c>
     </row>
@@ -5612,22 +5602,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>1940060</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1809885</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>1856405</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>2036981</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>2107300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>1917497</v>
       </c>
     </row>
@@ -5635,22 +5625,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>1974240</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1822196</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>1837772</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>2519385</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>2094252</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>1931015</v>
       </c>
     </row>
@@ -5658,22 +5648,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>1935903</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>1800718</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>1876056</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>2011890</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>2115616</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>1931219</v>
       </c>
     </row>
@@ -5681,22 +5671,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>2025186</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>1838197</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>1837469</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>2002655</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>2099397</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>2428503</v>
       </c>
     </row>
@@ -5704,22 +5694,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>1944746</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>1801416</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>1871181</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>1985194</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>2073577</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>1932594</v>
       </c>
     </row>
@@ -5727,22 +5717,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>1972458</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>1874370</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>1871592</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>2002890</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>2081976</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>1950283</v>
       </c>
     </row>
@@ -5750,22 +5740,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>1950093</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>1843414</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>1589892</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>1972992</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>2085364</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>1907048</v>
       </c>
     </row>
@@ -5773,22 +5763,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>1940043</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>1826092</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>1890419</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>2021031</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>2098251</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>1899433</v>
       </c>
     </row>
@@ -5796,22 +5786,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>1926540</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>1854093</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>1868636</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>2106272</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>2083267</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>1973170</v>
       </c>
     </row>
@@ -5819,22 +5809,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>1992585</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>1849446</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>1898287</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>2048370</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>2089816</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>2466896</v>
       </c>
     </row>
@@ -5842,22 +5832,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>1954889</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>1861963</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>1865815</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>1985439</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>2089920</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>1861900</v>
       </c>
     </row>
@@ -5865,22 +5855,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>1948631</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>1826310</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>1886161</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>1937345</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>2165403</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>1858870</v>
       </c>
     </row>
@@ -5888,22 +5878,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>1977948</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>1865222</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>1879695</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>1934256</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>2202317</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>1880370</v>
       </c>
     </row>
@@ -5959,98 +5949,98 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="3"/>
-    <col min="7" max="7" width="21.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="3"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="13" width="10.5703125" style="3"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3"/>
-    <col min="16" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="3"/>
+    <col min="10" max="13" width="10.5703125" style="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>6184078.5499999998</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>5807594.9500000002</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>5997884.7999999998</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>6308944.3499999996</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>6692878.8499999996</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>6039483.0499999998</v>
       </c>
@@ -6059,48 +6049,48 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>6214245</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>6275688</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>5805348</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>6754677</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>6710073</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>6108635</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>7703022</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>6477209</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>6151728</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>6754677</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>7622231</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>6645636</v>
       </c>
@@ -6109,48 +6099,48 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>6759886</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>5125795</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>5957639</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>6380460</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>7622231</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>5948126</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>3191727</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>4509792</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>5805348</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>5988733</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
         <v>5878680</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>5805785</v>
       </c>
@@ -6159,22 +6149,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>6185513</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>5616474</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>6046815</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>5988733</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>6705826</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>5993148</v>
       </c>
     </row>
@@ -6182,22 +6172,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>6387585</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>6362389</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>6015684</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>6180602</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>6353040</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>5892307</v>
       </c>
     </row>
@@ -6205,22 +6195,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>6199649</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>5948637</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>6013774</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>6236898</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>6734549</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>5805785</v>
       </c>
     </row>
@@ -6228,22 +6218,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>6137949</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>5580845</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>5996731</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>6259267</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>6362976</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>6645636</v>
       </c>
     </row>
@@ -6251,22 +6241,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>3191727</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>5562277</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>6010298</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>6301040</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>5942171</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>6104747</v>
       </c>
     </row>
@@ -6274,22 +6264,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>6253939</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>6328064</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>5931402</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>6292338</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>6819419</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>6039550</v>
       </c>
     </row>
@@ -6297,22 +6287,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>6275126</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>5559022</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>5952481</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>6349357</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>5878680</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>6089216</v>
       </c>
     </row>
@@ -6320,22 +6310,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>6035172</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>6412408</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>5988591</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>6264303</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>7602068</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>5918450</v>
       </c>
     </row>
@@ -6343,22 +6333,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>6141028</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>6389296</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>6025642</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>6272890</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>6157660</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>6140456</v>
       </c>
     </row>
@@ -6366,22 +6356,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>6169942</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>5621663</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>6151728</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>6220441</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>6655889</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>5911821</v>
       </c>
     </row>
@@ -6389,22 +6379,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>7703022</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>5614984</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>5984878</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>6388562</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>6178571</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>5941338</v>
       </c>
     </row>
@@ -6412,22 +6402,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>6226240</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>5599207</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>6005003</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>6348208</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>7591341</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>6056613</v>
       </c>
     </row>
@@ -6435,22 +6425,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>6718558</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>5762536</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>5984208</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>6368356</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>6825300</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>6014735</v>
       </c>
     </row>
@@ -6458,22 +6448,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>6107086</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>6477209</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>6000611</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>6427619</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>6829694</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>6030888</v>
       </c>
     </row>
@@ -6481,22 +6471,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>6213998</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>4509792</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>6085554</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>6336068</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>6935972</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>6163944</v>
       </c>
     </row>
@@ -6504,22 +6494,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>6127450</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>6420821</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>6036779</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>6286999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>6934872</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>5982737</v>
       </c>
     </row>
@@ -6527,22 +6517,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>6397618</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>6291762</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>6025085</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>6318737</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>6279431</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>6033377</v>
       </c>
     </row>
@@ -6550,22 +6540,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>6235838</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>4693030</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>5939445</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>6203332</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>6737814</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>5968152</v>
       </c>
     </row>
@@ -6621,100 +6611,100 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="3"/>
-    <col min="12" max="13" width="11.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1"/>
+    <col min="12" max="13" width="11.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>43330569.450000003</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>31801408.399999999</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>32001060.100000001</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>35985537.649999999</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>42620818.299999997</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>32756551.050000001</v>
       </c>
@@ -6723,48 +6713,48 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>33807491</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>33454372</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>31706391</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>33229918</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>34642067</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>31529550</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>71361249</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>34731560</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>32379515</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>62067740</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>72907838</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>39951739</v>
       </c>
@@ -6773,48 +6763,48 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>70177222</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>31305287</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>32244373</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>33177050</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>35123881</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>31555103</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>30799955</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>30765543</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>31639312</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>32887643</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
         <v>34642067</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>30458109</v>
       </c>
@@ -6823,22 +6813,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>33988447</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>30788291</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>31954570</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>33568074</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>38026742</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>39951739</v>
       </c>
     </row>
@@ -6846,22 +6836,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>65852201</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>31321469</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>32107877</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>33492279</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>35647228</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>31657041</v>
       </c>
     </row>
@@ -6869,22 +6859,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>33426309</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>33321407</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>32167543</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>62067740</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>35860355</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>31811111</v>
       </c>
     </row>
@@ -6892,22 +6882,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>57048393</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>31275164</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>32263310</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>33215885</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>37489087</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>30527809</v>
       </c>
     </row>
@@ -6915,22 +6905,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>33202451</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>31591867</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>32060732</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>33535067</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>35905037</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>31575324</v>
       </c>
     </row>
@@ -6938,22 +6928,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>56014357</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>31073321</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>32158009</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>33450969</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>35239114</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>31601112</v>
       </c>
     </row>
@@ -6961,22 +6951,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>71361249</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>30765543</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>31771890</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>38256747</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>38328041</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>30458109</v>
       </c>
     </row>
@@ -6984,22 +6974,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>33727970</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>33600394</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>32008536</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>33472639</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>34957051</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>31490153</v>
       </c>
     </row>
@@ -7007,22 +6997,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>36114019</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>31230899</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>32206150</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>39959368</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>35036968</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>33538673</v>
       </c>
     </row>
@@ -7030,22 +7020,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>35242807</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>33612521</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>32379515</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>33397584</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>34880967</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>31353171</v>
       </c>
     </row>
@@ -7053,22 +7043,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>33765455</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>31598268</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>31665158</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>34142481</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>35059501</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>38689422</v>
       </c>
     </row>
@@ -7076,22 +7066,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>33939717</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>30915355</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>31804666</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>33332082</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>72907838</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>34760998</v>
       </c>
     </row>
@@ -7099,22 +7089,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>33761669</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>31500790</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>32320594</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>36272708</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>72690589</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>31492065</v>
       </c>
     </row>
@@ -7122,22 +7112,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>33281559</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>30788743</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>31639312</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>36407276</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>35300682</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>31354860</v>
       </c>
     </row>
@@ -7145,22 +7135,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>35093208</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>30817093</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>31865999</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>35613748</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>36934541</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>31278462</v>
       </c>
     </row>
@@ -7168,22 +7158,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>39727808</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>31525949</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>31747248</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>32887643</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>60029118</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>37419582</v>
       </c>
     </row>
@@ -7191,22 +7181,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>66279102</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>30809875</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>32145200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>36229498</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>71533238</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>31453050</v>
       </c>
     </row>
@@ -7214,22 +7204,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>30799955</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>34731560</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>31804129</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>34001997</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>36824321</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>31633687</v>
       </c>
     </row>
@@ -7285,102 +7275,102 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="6"/>
+    <col min="3" max="3" width="25.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="4"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="6"/>
-    <col min="16" max="16" width="12.5703125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="6"/>
+    <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="4"/>
+    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>0.29546795000000009</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>0.27438165000000009</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>0.26406004999999999</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <f t="shared" si="0"/>
         <v>0.27677954999999999</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <f t="shared" si="0"/>
         <v>0.30333269999999996</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>0.26025834999999997</v>
       </c>
@@ -7389,49 +7379,49 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.29774200000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>0.271816</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.26335799999999998</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>0.26880900000000002</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>0.294929</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>0.25777899999999998</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="1"/>
       <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>0.31608599999999998</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>0.28510099999999999</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <f t="shared" si="1"/>
         <v>0.282725</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <f t="shared" si="1"/>
         <v>0.31168099999999999</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <f t="shared" si="1"/>
         <v>0.33500999999999997</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <f t="shared" si="1"/>
         <v>0.28921799999999998</v>
       </c>
@@ -7440,49 +7430,49 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.291126</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>0.27305600000000002</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.26250400000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>0.26964700000000003</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>0.29736099999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>0.25753199999999998</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="1"/>
       <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>0.29046699999999998</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <f t="shared" si="2"/>
         <v>0.27082499999999998</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <f t="shared" si="2"/>
         <v>0.26205299999999998</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <f t="shared" si="2"/>
         <v>0.26841500000000001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <f t="shared" si="2"/>
         <v>0.294929</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <f t="shared" si="2"/>
         <v>0.25628299999999998</v>
       </c>
@@ -7491,22 +7481,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.29127700000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0.27448400000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.26230100000000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>0.26841500000000001</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>0.33500999999999997</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>0.26172000000000001</v>
       </c>
     </row>
@@ -7514,22 +7504,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.291545</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.27392</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.26297599999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>0.27494000000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>0.295684</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>0.26856000000000002</v>
       </c>
     </row>
@@ -7537,22 +7527,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0.29046699999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0.27082499999999998</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.26327699999999998</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>0.26999800000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>0.33350200000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>0.26016299999999998</v>
       </c>
     </row>
@@ -7560,22 +7550,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0.29132599999999997</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.27207199999999998</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.26281700000000002</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>0.30235400000000001</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>0.29694399999999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>0.25630199999999997</v>
       </c>
     </row>
@@ -7583,22 +7573,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.31608599999999998</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0.27741900000000003</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.26253100000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0.26869300000000002</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>0.29569699999999999</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>0.25630399999999998</v>
       </c>
     </row>
@@ -7606,22 +7596,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0.31606299999999998</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>0.27379399999999998</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.262214</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>0.27590399999999998</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>0.295711</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>0.25646200000000002</v>
       </c>
     </row>
@@ -7629,22 +7619,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0.29311399999999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.27954099999999998</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0.26328299999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0.27410200000000001</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>0.29648999999999998</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>0.25769599999999998</v>
       </c>
     </row>
@@ -7652,22 +7642,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>0.29055500000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.27199000000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>0.26247799999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.275449</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>0.29594500000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>0.25712200000000002</v>
       </c>
     </row>
@@ -7675,22 +7665,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>0.29691499999999998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0.27242899999999998</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>0.26238600000000001</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>0.297122</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>0.29587400000000003</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>0.26247999999999999</v>
       </c>
     </row>
@@ -7698,22 +7688,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>0.29182999999999998</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.27172400000000002</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>0.266372</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.27050200000000002</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>0.30155399999999999</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <v>0.25774799999999998</v>
       </c>
     </row>
@@ -7721,22 +7711,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>0.29164299999999999</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.27417999999999998</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.262799</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.26940700000000001</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>0.29684199999999999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>0.25825399999999998</v>
       </c>
     </row>
@@ -7744,22 +7734,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>0.29804900000000001</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.276034</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>0.26340200000000003</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>0.26940700000000001</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>0.29596499999999998</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>0.25804300000000002</v>
       </c>
     </row>
@@ -7767,22 +7757,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0.29181400000000002</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.272953</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>0.26285700000000001</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>0.31168099999999999</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>0.29705700000000002</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>0.25628299999999998</v>
       </c>
     </row>
@@ -7790,22 +7780,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>0.29141899999999998</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>0.27185500000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.26325799999999999</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>0.27261299999999999</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>0.29603400000000002</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <v>0.25640000000000002</v>
       </c>
     </row>
@@ -7813,22 +7803,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>0.29199700000000001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.27260499999999999</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>0.26205299999999998</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>0.27794799999999997</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>0.29621599999999998</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <v>0.26242399999999999</v>
       </c>
     </row>
@@ -7836,22 +7826,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>0.291794</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.27810699999999999</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>0.26310299999999998</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>0.280339</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>0.330679</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <v>0.25687599999999999</v>
       </c>
     </row>
@@ -7859,22 +7849,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>0.29522399999999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.27372800000000003</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>0.282725</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>0.26892700000000003</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>0.32211899999999999</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <v>0.28921799999999998</v>
       </c>
     </row>
@@ -7882,22 +7872,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>0.299373</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.28510099999999999</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>0.26450699999999999</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>0.26933400000000002</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>0.297041</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <v>0.257801</v>
       </c>
     </row>
@@ -7953,101 +7943,101 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" style="7"/>
+    <col min="6" max="6" width="13.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" style="5"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <f t="shared" ref="L4:Q4" si="0">AVERAGE(C:C)</f>
         <v>2.8162803500000004</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>2.4055854000000001</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>2.3394234999999997</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <f t="shared" si="0"/>
         <v>2.3858747500000002</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <f t="shared" si="0"/>
         <v>2.6151527000000003</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>2.2980112499999996</v>
       </c>
@@ -8056,49 +8046,49 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>2.9742950000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>2.4026830000000001</v>
       </c>
       <c r="E5">
         <v>2.3404069999999999</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>2.369132</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>2.6104259999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>2.2973520000000001</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="1"/>
       <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <f t="shared" ref="L5:Q5" si="1">MAX(C:C)</f>
         <v>2.9931770000000002</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>2.4261710000000001</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <f t="shared" si="1"/>
         <v>2.3715820000000001</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <f t="shared" si="1"/>
         <v>2.4171870000000002</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <f t="shared" si="1"/>
         <v>2.6273879999999998</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <f t="shared" si="1"/>
         <v>2.3214329999999999</v>
       </c>
@@ -8107,49 +8097,49 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>2.9691160000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2.3971290000000001</v>
       </c>
       <c r="E6">
         <v>2.3353510000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>2.4166949999999998</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>2.6140889999999999</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>2.2991440000000001</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="1"/>
       <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <f t="shared" ref="L6:Q6" si="2">MIN(C:C)</f>
         <v>2.6676630000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <f t="shared" si="2"/>
         <v>2.3969749999999999</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <f t="shared" si="2"/>
         <v>2.331026</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <f t="shared" si="2"/>
         <v>2.369132</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <f t="shared" si="2"/>
         <v>2.6033930000000001</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <f t="shared" si="2"/>
         <v>2.287747</v>
       </c>
@@ -8158,22 +8148,22 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>2.8153619999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>2.4084479999999999</v>
       </c>
       <c r="E7">
         <v>2.3346230000000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>2.3814039999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>2.6121919999999998</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>2.297256</v>
       </c>
     </row>
@@ -8181,22 +8171,22 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>2.6697389999999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>2.4038620000000002</v>
       </c>
       <c r="E8">
         <v>2.3715820000000001</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>2.3831950000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>2.6130019999999998</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>2.2942360000000002</v>
       </c>
     </row>
@@ -8204,22 +8194,22 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>2.834714</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>2.3990909999999999</v>
       </c>
       <c r="E9">
         <v>2.339356</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>2.3761329999999998</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>2.6142310000000002</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>2.2977409999999998</v>
       </c>
     </row>
@@ -8227,22 +8217,22 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>2.749622</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2.402336</v>
       </c>
       <c r="E10">
         <v>2.3354750000000002</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>2.3786130000000001</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>2.6125859999999999</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>2.2976559999999999</v>
       </c>
     </row>
@@ -8250,22 +8240,22 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>2.740558</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>2.4020839999999999</v>
       </c>
       <c r="E11">
         <v>2.3376139999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>2.3838720000000002</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>2.61124</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>2.2917879999999999</v>
       </c>
     </row>
@@ -8273,22 +8263,22 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>2.9700859999999998</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>2.4261710000000001</v>
       </c>
       <c r="E12">
         <v>2.3369239999999998</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>2.3984369999999999</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>2.6069640000000001</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>2.2984249999999999</v>
       </c>
     </row>
@@ -8296,22 +8286,22 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>2.6684580000000002</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>2.4010359999999999</v>
       </c>
       <c r="E13">
         <v>2.3393440000000001</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>2.3853819999999999</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>2.6217109999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>2.3041580000000002</v>
       </c>
     </row>
@@ -8319,22 +8309,22 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>2.9663110000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>2.403934</v>
       </c>
       <c r="E14">
         <v>2.3363749999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>2.3869549999999999</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>2.6238079999999999</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>2.291255</v>
       </c>
     </row>
@@ -8342,22 +8332,22 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>2.7643209999999998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>2.4000910000000002</v>
       </c>
       <c r="E15">
         <v>2.3338519999999998</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>2.3880780000000001</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>2.6200709999999998</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>2.301615</v>
       </c>
     </row>
@@ -8365,22 +8355,22 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>2.7351160000000001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>2.4110550000000002</v>
       </c>
       <c r="E16">
         <v>2.3431600000000001</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>2.3799350000000001</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>2.618852</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>2.2942019999999999</v>
       </c>
     </row>
@@ -8388,22 +8378,22 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>2.8179810000000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>2.3994080000000002</v>
       </c>
       <c r="E17">
         <v>2.3328679999999999</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>2.373275</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>2.6134919999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>2.302378</v>
       </c>
     </row>
@@ -8411,22 +8401,22 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>2.7378239999999998</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>2.3969749999999999</v>
       </c>
       <c r="E18">
         <v>2.339445</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>2.3795359999999999</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>2.6033930000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>2.3066179999999998</v>
       </c>
     </row>
@@ -8434,22 +8424,22 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>2.6676630000000001</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>2.4058389999999998</v>
       </c>
       <c r="E19">
         <v>2.331026</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>2.3813460000000002</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>2.6061290000000001</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>2.2914659999999998</v>
       </c>
     </row>
@@ -8457,22 +8447,22 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>2.9931770000000002</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>2.414965</v>
       </c>
       <c r="E20">
         <v>2.3354029999999999</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>2.4036089999999999</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>2.6155889999999999</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>2.2923969999999998</v>
       </c>
     </row>
@@ -8480,22 +8470,22 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>2.9695490000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>2.4004989999999999</v>
       </c>
       <c r="E21">
         <v>2.3434979999999999</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>2.4171870000000002</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>2.6173790000000001</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>2.3214329999999999</v>
       </c>
     </row>
@@ -8503,22 +8493,22 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>2.7718500000000001</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>2.4083890000000001</v>
       </c>
       <c r="E22">
         <v>2.3355869999999999</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>2.3786670000000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>2.6173790000000001</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>2.297256</v>
       </c>
     </row>
@@ -8526,22 +8516,22 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>2.827499</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>2.418307</v>
       </c>
       <c r="E23">
         <v>2.3347389999999999</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>2.3784960000000002</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>2.6273879999999998</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>2.287747</v>
       </c>
     </row>
@@ -8549,22 +8539,22 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>2.682366</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>2.4094060000000002</v>
       </c>
       <c r="E24">
         <v>2.3518409999999998</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>2.377548</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>2.6231330000000002</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>2.2961019999999999</v>
       </c>
     </row>

--- a/Ausarbeitung/Zeitmessungen.xlsx
+++ b/Ausarbeitung/Zeitmessungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TUM\3. Semester\ASP\Projekt\ASP-Peano\Ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D56711-ACA6-4F35-9E7E-0EB4D45ED48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5C3F3-3F2D-42C0-B9E1-CDD7FB74210C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,13 +319,13 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -3006,13 +3006,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4037,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A4:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,19 +5005,19 @@
         <v>29</v>
       </c>
       <c r="B22" s="12">
-        <f>C7</f>
+        <f t="shared" ref="B22:B27" si="12">C7</f>
         <v>19267.05</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" ref="C22:E22" si="12">D7</f>
+        <f t="shared" ref="C22:E22" si="13">D7</f>
         <v>22095.599999999999</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29450.1</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20101.400000000001</v>
       </c>
     </row>
@@ -5025,19 +5025,19 @@
       <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="28">
-        <f>C8</f>
+      <c r="B23" s="26">
+        <f t="shared" si="12"/>
         <v>207927.45</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="26">
         <f>D8</f>
         <v>221833.05</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="26">
         <f>E8</f>
         <v>252268.05</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
         <f>F8</f>
         <v>212634.7</v>
       </c>
@@ -5046,20 +5046,20 @@
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="28">
-        <f>C9</f>
+      <c r="B24" s="26">
+        <f t="shared" si="12"/>
         <v>1852378.45</v>
       </c>
-      <c r="C24" s="28">
-        <f t="shared" ref="C24:E24" si="13">D9</f>
+      <c r="C24" s="26">
+        <f t="shared" ref="C24:E24" si="14">D9</f>
         <v>2074699.9</v>
       </c>
-      <c r="D24" s="28">
-        <f t="shared" si="13"/>
+      <c r="D24" s="26">
+        <f t="shared" si="14"/>
         <v>2107929.7999999998</v>
       </c>
-      <c r="E24" s="28">
-        <f t="shared" si="13"/>
+      <c r="E24" s="26">
+        <f t="shared" si="14"/>
         <v>1965193.05</v>
       </c>
     </row>
@@ -5067,19 +5067,19 @@
       <c r="A25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="28">
-        <f>C10</f>
+      <c r="B25" s="26">
+        <f t="shared" si="12"/>
         <v>5997884.7999999998</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="26">
         <f>D10</f>
         <v>6308944.3499999996</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="26">
         <f>E10</f>
         <v>6692878.8499999996</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="26">
         <f>F10</f>
         <v>6039483.0499999998</v>
       </c>
@@ -5088,20 +5088,20 @@
       <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="28">
-        <f>C11</f>
+      <c r="B26" s="26">
+        <f t="shared" si="12"/>
         <v>32001060.100000001</v>
       </c>
-      <c r="C26" s="28">
-        <f t="shared" ref="C26:E26" si="14">D11</f>
+      <c r="C26" s="26">
+        <f t="shared" ref="C26:E26" si="15">D11</f>
         <v>35985537.649999999</v>
       </c>
-      <c r="D26" s="28">
-        <f t="shared" si="14"/>
+      <c r="D26" s="26">
+        <f t="shared" si="15"/>
         <v>42620818.299999997</v>
       </c>
-      <c r="E26" s="28">
-        <f t="shared" si="14"/>
+      <c r="E26" s="26">
+        <f t="shared" si="15"/>
         <v>32756551.050000001</v>
       </c>
     </row>
@@ -5109,20 +5109,20 @@
       <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="28">
-        <f>C12</f>
+      <c r="B27" s="26">
+        <f t="shared" si="12"/>
         <v>264060050</v>
       </c>
-      <c r="C27" s="28">
-        <f t="shared" ref="C27:E27" si="15">D12</f>
+      <c r="C27" s="26">
+        <f t="shared" ref="C27:E27" si="16">D12</f>
         <v>276779550</v>
       </c>
-      <c r="D27" s="28">
-        <f t="shared" si="15"/>
+      <c r="D27" s="26">
+        <f t="shared" si="16"/>
         <v>303332699.99999994</v>
       </c>
-      <c r="E27" s="28">
-        <f t="shared" si="15"/>
+      <c r="E27" s="26">
+        <f t="shared" si="16"/>
         <v>260258349.99999997</v>
       </c>
     </row>
@@ -5174,13 +5174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -6024,13 +6024,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -6874,13 +6874,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -7725,13 +7725,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -8576,13 +8576,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -9429,13 +9429,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -10284,13 +10284,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -11115,8 +11115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11137,16 +11137,17 @@
     <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" style="4"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
